--- a/tools/ccb/ccb-cff-2023-03-01.xlsx
+++ b/tools/ccb/ccb-cff-2023-03-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/ccb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B824AB6E-0787-8B45-B39C-FB71673B1340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC6BB1A-58AC-184B-8FEA-C488728ACD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="2" r:id="rId1"/>
@@ -2947,14 +2947,6 @@
     <t>Formal processes, organisation oriented &amp; proactive</t>
   </si>
   <si>
-    <t>Formal processes, organisation oriented, controlled, proactive &amp;
-measured</t>
-  </si>
-  <si>
-    <t>Formal processes, organisation oriented, controlled, proactive,
-measured &amp; continual improvement focus</t>
-  </si>
-  <si>
     <t>scores</t>
   </si>
   <si>
@@ -2999,6 +2991,12 @@
   <si>
     <t>Centre For Cybersecurity Belgium - CyberFundamentals Framework
 https://ccb.belgium.be</t>
+  </si>
+  <si>
+    <t>Formal processes, organisation oriented, controlled, proactive &amp; measured</t>
+  </si>
+  <si>
+    <t>Formal processes, organisation oriented, controlled, proactive, measured &amp; continual improvement focus</t>
   </si>
 </sst>
 </file>
@@ -3383,7 +3381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699B1651-6DC7-1E43-A5B6-8EF15B32842F}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="231" workbookViewId="0">
+    <sheetView zoomScale="231" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -3439,7 +3437,7 @@
         <v>874</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3514,10 +3512,10 @@
         <v>887</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C15" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -3525,10 +3523,10 @@
         <v>887</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C16" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
   </sheetData>
@@ -3564,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>864</v>
@@ -3623,7 +3621,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -3643,7 +3641,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -3663,7 +3661,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -3683,7 +3681,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -3714,7 +3712,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -3734,7 +3732,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
@@ -3754,7 +3752,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
@@ -3774,7 +3772,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D13" t="s">
         <v>35</v>
@@ -3794,7 +3792,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
@@ -3825,7 +3823,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D16" t="s">
         <v>43</v>
@@ -3845,7 +3843,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D17" t="s">
         <v>46</v>
@@ -3865,7 +3863,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D18" t="s">
         <v>49</v>
@@ -3896,7 +3894,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D20" t="s">
         <v>54</v>
@@ -3916,7 +3914,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D21" t="s">
         <v>57</v>
@@ -3947,7 +3945,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D23" t="s">
         <v>62</v>
@@ -3978,7 +3976,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D25" t="s">
         <v>67</v>
@@ -3998,7 +3996,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D26" t="s">
         <v>70</v>
@@ -4043,7 +4041,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D29" t="s">
         <v>78</v>
@@ -4063,7 +4061,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D30" t="s">
         <v>81</v>
@@ -4094,7 +4092,7 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D32" t="s">
         <v>890</v>
@@ -4125,7 +4123,7 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D34" t="s">
         <v>891</v>
@@ -4156,7 +4154,7 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D36" t="s">
         <v>892</v>
@@ -4187,7 +4185,7 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D38" t="s">
         <v>97</v>
@@ -4207,7 +4205,7 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D39" t="s">
         <v>100</v>
@@ -4227,7 +4225,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D40" t="s">
         <v>103</v>
@@ -4272,7 +4270,7 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D43" t="s">
         <v>111</v>
@@ -4292,7 +4290,7 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D44" t="s">
         <v>114</v>
@@ -4323,7 +4321,7 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D46" t="s">
         <v>119</v>
@@ -4343,7 +4341,7 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D47" t="s">
         <v>122</v>
@@ -4374,7 +4372,7 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D49" t="s">
         <v>127</v>
@@ -4394,7 +4392,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D50" t="s">
         <v>130</v>
@@ -4439,7 +4437,7 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D53" t="s">
         <v>138</v>
@@ -4459,7 +4457,7 @@
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D54" t="s">
         <v>141</v>
@@ -4479,7 +4477,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D55" t="s">
         <v>144</v>
@@ -4510,7 +4508,7 @@
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D57" t="s">
         <v>149</v>
@@ -4530,7 +4528,7 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D58" t="s">
         <v>152</v>
@@ -4561,7 +4559,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D60" t="s">
         <v>156</v>
@@ -4581,7 +4579,7 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D61" t="s">
         <v>159</v>
@@ -4601,7 +4599,7 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D62" t="s">
         <v>162</v>
@@ -4632,7 +4630,7 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D64" t="s">
         <v>166</v>
@@ -4677,7 +4675,7 @@
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D67" t="s">
         <v>174</v>
@@ -4708,7 +4706,7 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D69" t="s">
         <v>179</v>
@@ -4739,7 +4737,7 @@
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D71" t="s">
         <v>184</v>
@@ -4784,7 +4782,7 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D74" t="s">
         <v>191</v>
@@ -4815,7 +4813,7 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D76" t="s">
         <v>195</v>
@@ -4835,7 +4833,7 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D77" t="s">
         <v>198</v>
@@ -4866,7 +4864,7 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D79" t="s">
         <v>203</v>
@@ -4886,7 +4884,7 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D80" t="s">
         <v>206</v>
@@ -4906,7 +4904,7 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D81" t="s">
         <v>209</v>
@@ -4937,7 +4935,7 @@
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D83" t="s">
         <v>213</v>
@@ -4957,7 +4955,7 @@
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D84" t="s">
         <v>216</v>
@@ -4988,7 +4986,7 @@
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D86" t="s">
         <v>221</v>
@@ -5008,7 +5006,7 @@
         <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D87" t="s">
         <v>223</v>
@@ -5064,13 +5062,13 @@
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D91" t="s">
         <v>232</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>233</v>
@@ -5084,7 +5082,7 @@
         <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D92" t="s">
         <v>234</v>
@@ -5104,7 +5102,7 @@
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D93" t="s">
         <v>237</v>
@@ -5124,7 +5122,7 @@
         <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D94" t="s">
         <v>240</v>
@@ -5144,7 +5142,7 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D95" t="s">
         <v>243</v>
@@ -5175,7 +5173,7 @@
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D97" t="s">
         <v>248</v>
@@ -5195,7 +5193,7 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D98" t="s">
         <v>251</v>
@@ -5215,7 +5213,7 @@
         <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D99" t="s">
         <v>254</v>
@@ -5235,7 +5233,7 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D100" t="s">
         <v>257</v>
@@ -5266,7 +5264,7 @@
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D102" t="s">
         <v>262</v>
@@ -5286,7 +5284,7 @@
         <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D103" t="s">
         <v>265</v>
@@ -5306,7 +5304,7 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D104" t="s">
         <v>268</v>
@@ -5326,7 +5324,7 @@
         <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D105" t="s">
         <v>271</v>
@@ -5346,7 +5344,7 @@
         <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D106" t="s">
         <v>274</v>
@@ -5377,7 +5375,7 @@
         <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D108" t="s">
         <v>279</v>
@@ -5397,7 +5395,7 @@
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D109" t="s">
         <v>282</v>
@@ -5417,13 +5415,13 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D110" t="s">
         <v>285</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>286</v>
@@ -5437,13 +5435,13 @@
         <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D111" t="s">
         <v>287</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>288</v>
@@ -5457,7 +5455,7 @@
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D112" t="s">
         <v>289</v>
@@ -5477,7 +5475,7 @@
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D113" t="s">
         <v>292</v>
@@ -5497,7 +5495,7 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D114" t="s">
         <v>295</v>
@@ -5517,7 +5515,7 @@
         <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D115" t="s">
         <v>297</v>
@@ -5537,7 +5535,7 @@
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D116" t="s">
         <v>300</v>
@@ -5568,7 +5566,7 @@
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D118" t="s">
         <v>304</v>
@@ -5588,7 +5586,7 @@
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D119" t="s">
         <v>307</v>
@@ -5608,7 +5606,7 @@
         <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D120" t="s">
         <v>310</v>
@@ -5628,7 +5626,7 @@
         <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D121" t="s">
         <v>313</v>
@@ -5648,7 +5646,7 @@
         <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D122" t="s">
         <v>316</v>
@@ -5668,7 +5666,7 @@
         <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D123" t="s">
         <v>318</v>
@@ -5699,7 +5697,7 @@
         <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D125" t="s">
         <v>322</v>
@@ -5719,7 +5717,7 @@
         <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D126" t="s">
         <v>324</v>
@@ -5750,7 +5748,7 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D128" t="s">
         <v>328</v>
@@ -5795,7 +5793,7 @@
         <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D131" t="s">
         <v>336</v>
@@ -5815,7 +5813,7 @@
         <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D132" t="s">
         <v>339</v>
@@ -5835,7 +5833,7 @@
         <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D133" t="s">
         <v>342</v>
@@ -5866,7 +5864,7 @@
         <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D135" t="s">
         <v>346</v>
@@ -5897,7 +5895,7 @@
         <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D137" t="s">
         <v>350</v>
@@ -5917,7 +5915,7 @@
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D138" t="s">
         <v>353</v>
@@ -5937,7 +5935,7 @@
         <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D139" t="s">
         <v>356</v>
@@ -5957,7 +5955,7 @@
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D140" t="s">
         <v>359</v>
@@ -5988,7 +5986,7 @@
         <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D142" t="s">
         <v>363</v>
@@ -6019,7 +6017,7 @@
         <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D144" t="s">
         <v>368</v>
@@ -6064,7 +6062,7 @@
         <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D147" t="s">
         <v>375</v>
@@ -6095,7 +6093,7 @@
         <v>4</v>
       </c>
       <c r="C149" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D149" t="s">
         <v>380</v>
@@ -6126,7 +6124,7 @@
         <v>4</v>
       </c>
       <c r="C151" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D151" t="s">
         <v>385</v>
@@ -6146,7 +6144,7 @@
         <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D152" t="s">
         <v>388</v>
@@ -6166,7 +6164,7 @@
         <v>4</v>
       </c>
       <c r="C153" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D153" t="s">
         <v>391</v>
@@ -6186,7 +6184,7 @@
         <v>4</v>
       </c>
       <c r="C154" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D154" t="s">
         <v>394</v>
@@ -6217,7 +6215,7 @@
         <v>4</v>
       </c>
       <c r="C156" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D156" t="s">
         <v>399</v>
@@ -6237,7 +6235,7 @@
         <v>4</v>
       </c>
       <c r="C157" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D157" t="s">
         <v>893</v>
@@ -6257,7 +6255,7 @@
         <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D158" t="s">
         <v>403</v>
@@ -6288,7 +6286,7 @@
         <v>4</v>
       </c>
       <c r="C160" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D160" t="s">
         <v>407</v>
@@ -6319,7 +6317,7 @@
         <v>4</v>
       </c>
       <c r="C162" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D162" t="s">
         <v>412</v>
@@ -6339,7 +6337,7 @@
         <v>4</v>
       </c>
       <c r="C163" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D163" t="s">
         <v>415</v>
@@ -6359,7 +6357,7 @@
         <v>4</v>
       </c>
       <c r="C164" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D164" t="s">
         <v>417</v>
@@ -6390,7 +6388,7 @@
         <v>4</v>
       </c>
       <c r="C166" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D166" t="s">
         <v>421</v>
@@ -6421,7 +6419,7 @@
         <v>4</v>
       </c>
       <c r="C168" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D168" t="s">
         <v>426</v>
@@ -6441,7 +6439,7 @@
         <v>4</v>
       </c>
       <c r="C169" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D169" t="s">
         <v>428</v>
@@ -6464,7 +6462,7 @@
         <v>431</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -6486,7 +6484,7 @@
         <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D172" t="s">
         <v>434</v>
@@ -6506,7 +6504,7 @@
         <v>4</v>
       </c>
       <c r="C173" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D173" t="s">
         <v>437</v>
@@ -6537,7 +6535,7 @@
         <v>4</v>
       </c>
       <c r="C175" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D175" t="s">
         <v>442</v>
@@ -6557,7 +6555,7 @@
         <v>4</v>
       </c>
       <c r="C176" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D176" t="s">
         <v>445</v>
@@ -6588,7 +6586,7 @@
         <v>4</v>
       </c>
       <c r="C178" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D178" t="s">
         <v>450</v>
@@ -6608,7 +6606,7 @@
         <v>4</v>
       </c>
       <c r="C179" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D179" t="s">
         <v>452</v>
@@ -6639,7 +6637,7 @@
         <v>4</v>
       </c>
       <c r="C181" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D181" t="s">
         <v>456</v>
@@ -6659,7 +6657,7 @@
         <v>4</v>
       </c>
       <c r="C182" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D182" t="s">
         <v>459</v>
@@ -6679,7 +6677,7 @@
         <v>4</v>
       </c>
       <c r="C183" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D183" t="s">
         <v>462</v>
@@ -6699,7 +6697,7 @@
         <v>4</v>
       </c>
       <c r="C184" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D184" t="s">
         <v>465</v>
@@ -6719,7 +6717,7 @@
         <v>4</v>
       </c>
       <c r="C185" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D185" t="s">
         <v>468</v>
@@ -6750,7 +6748,7 @@
         <v>4</v>
       </c>
       <c r="C187" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D187" t="s">
         <v>473</v>
@@ -6770,7 +6768,7 @@
         <v>4</v>
       </c>
       <c r="C188" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D188" t="s">
         <v>476</v>
@@ -6801,7 +6799,7 @@
         <v>4</v>
       </c>
       <c r="C190" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D190" t="s">
         <v>480</v>
@@ -6821,7 +6819,7 @@
         <v>4</v>
       </c>
       <c r="C191" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D191" t="s">
         <v>483</v>
@@ -6852,7 +6850,7 @@
         <v>4</v>
       </c>
       <c r="C193" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D193" t="s">
         <v>488</v>
@@ -6872,7 +6870,7 @@
         <v>4</v>
       </c>
       <c r="C194" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D194" t="s">
         <v>490</v>
@@ -6892,7 +6890,7 @@
         <v>4</v>
       </c>
       <c r="C195" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D195" t="s">
         <v>493</v>
@@ -6923,7 +6921,7 @@
         <v>4</v>
       </c>
       <c r="C197" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D197" t="s">
         <v>497</v>
@@ -6943,7 +6941,7 @@
         <v>4</v>
       </c>
       <c r="C198" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D198" t="s">
         <v>499</v>
@@ -6963,7 +6961,7 @@
         <v>4</v>
       </c>
       <c r="C199" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D199" t="s">
         <v>501</v>
@@ -6994,7 +6992,7 @@
         <v>4</v>
       </c>
       <c r="C201" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D201" t="s">
         <v>505</v>
@@ -7014,7 +7012,7 @@
         <v>4</v>
       </c>
       <c r="C202" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D202" t="s">
         <v>508</v>
@@ -7045,7 +7043,7 @@
         <v>4</v>
       </c>
       <c r="C204" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D204" t="s">
         <v>513</v>
@@ -7065,7 +7063,7 @@
         <v>4</v>
       </c>
       <c r="C205" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D205" t="s">
         <v>516</v>
@@ -7096,7 +7094,7 @@
         <v>4</v>
       </c>
       <c r="C207" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D207" t="s">
         <v>521</v>
@@ -7141,7 +7139,7 @@
         <v>4</v>
       </c>
       <c r="C210" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D210" t="s">
         <v>529</v>
@@ -7161,7 +7159,7 @@
         <v>4</v>
       </c>
       <c r="C211" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D211" t="s">
         <v>532</v>
@@ -7181,7 +7179,7 @@
         <v>4</v>
       </c>
       <c r="C212" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D212" t="s">
         <v>535</v>
@@ -7201,7 +7199,7 @@
         <v>4</v>
       </c>
       <c r="C213" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D213" t="s">
         <v>538</v>
@@ -7221,7 +7219,7 @@
         <v>4</v>
       </c>
       <c r="C214" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D214" t="s">
         <v>541</v>
@@ -7241,7 +7239,7 @@
         <v>4</v>
       </c>
       <c r="C215" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D215" t="s">
         <v>544</v>
@@ -7261,7 +7259,7 @@
         <v>4</v>
       </c>
       <c r="C216" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D216" t="s">
         <v>546</v>
@@ -7292,7 +7290,7 @@
         <v>4</v>
       </c>
       <c r="C218" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D218" t="s">
         <v>550</v>
@@ -7312,7 +7310,7 @@
         <v>4</v>
       </c>
       <c r="C219" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D219" t="s">
         <v>552</v>
@@ -7332,7 +7330,7 @@
         <v>4</v>
       </c>
       <c r="C220" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D220" t="s">
         <v>554</v>
@@ -7377,7 +7375,7 @@
         <v>4</v>
       </c>
       <c r="C223" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D223" t="s">
         <v>561</v>
@@ -7397,7 +7395,7 @@
         <v>4</v>
       </c>
       <c r="C224" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D224" t="s">
         <v>564</v>
@@ -7417,7 +7415,7 @@
         <v>4</v>
       </c>
       <c r="C225" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D225" t="s">
         <v>567</v>
@@ -7437,7 +7435,7 @@
         <v>4</v>
       </c>
       <c r="C226" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D226" t="s">
         <v>570</v>
@@ -7468,7 +7466,7 @@
         <v>4</v>
       </c>
       <c r="C228" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D228" t="s">
         <v>574</v>
@@ -7488,7 +7486,7 @@
         <v>4</v>
       </c>
       <c r="C229" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D229" t="s">
         <v>576</v>
@@ -7508,7 +7506,7 @@
         <v>4</v>
       </c>
       <c r="C230" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D230" t="s">
         <v>578</v>
@@ -7539,7 +7537,7 @@
         <v>4</v>
       </c>
       <c r="C232" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D232" t="s">
         <v>583</v>
@@ -7559,7 +7557,7 @@
         <v>4</v>
       </c>
       <c r="C233" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D233" t="s">
         <v>586</v>
@@ -7579,7 +7577,7 @@
         <v>4</v>
       </c>
       <c r="C234" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D234" t="s">
         <v>588</v>
@@ -7610,7 +7608,7 @@
         <v>4</v>
       </c>
       <c r="C236" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D236" t="s">
         <v>592</v>
@@ -7630,7 +7628,7 @@
         <v>4</v>
       </c>
       <c r="C237" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D237" t="s">
         <v>595</v>
@@ -7650,7 +7648,7 @@
         <v>4</v>
       </c>
       <c r="C238" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D238" t="s">
         <v>598</v>
@@ -7706,7 +7704,7 @@
         <v>4</v>
       </c>
       <c r="C242" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D242" t="s">
         <v>607</v>
@@ -7737,7 +7735,7 @@
         <v>4</v>
       </c>
       <c r="C244" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D244" t="s">
         <v>612</v>
@@ -7757,7 +7755,7 @@
         <v>4</v>
       </c>
       <c r="C245" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D245" t="s">
         <v>614</v>
@@ -7788,7 +7786,7 @@
         <v>4</v>
       </c>
       <c r="C247" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D247" t="s">
         <v>619</v>
@@ -7808,7 +7806,7 @@
         <v>4</v>
       </c>
       <c r="C248" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D248" t="s">
         <v>622</v>
@@ -7828,7 +7826,7 @@
         <v>4</v>
       </c>
       <c r="C249" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D249" t="s">
         <v>624</v>
@@ -7859,7 +7857,7 @@
         <v>4</v>
       </c>
       <c r="C251" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D251" t="s">
         <v>628</v>
@@ -7890,7 +7888,7 @@
         <v>4</v>
       </c>
       <c r="C253" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D253" t="s">
         <v>632</v>
@@ -7910,7 +7908,7 @@
         <v>4</v>
       </c>
       <c r="C254" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D254" t="s">
         <v>634</v>
@@ -7955,7 +7953,7 @@
         <v>4</v>
       </c>
       <c r="C257" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D257" t="s">
         <v>641</v>
@@ -7975,7 +7973,7 @@
         <v>4</v>
       </c>
       <c r="C258" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D258" t="s">
         <v>644</v>
@@ -7995,7 +7993,7 @@
         <v>4</v>
       </c>
       <c r="C259" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D259" t="s">
         <v>647</v>
@@ -8026,7 +8024,7 @@
         <v>4</v>
       </c>
       <c r="C261" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D261" t="s">
         <v>652</v>
@@ -8046,7 +8044,7 @@
         <v>4</v>
       </c>
       <c r="C262" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D262" t="s">
         <v>654</v>
@@ -8077,7 +8075,7 @@
         <v>4</v>
       </c>
       <c r="C264" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D264" t="s">
         <v>659</v>
@@ -8097,7 +8095,7 @@
         <v>4</v>
       </c>
       <c r="C265" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D265" t="s">
         <v>662</v>
@@ -8117,7 +8115,7 @@
         <v>4</v>
       </c>
       <c r="C266" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D266" t="s">
         <v>665</v>
@@ -8148,7 +8146,7 @@
         <v>4</v>
       </c>
       <c r="C268" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D268" t="s">
         <v>670</v>
@@ -8168,7 +8166,7 @@
         <v>4</v>
       </c>
       <c r="C269" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D269" t="s">
         <v>673</v>
@@ -8199,7 +8197,7 @@
         <v>4</v>
       </c>
       <c r="C271" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D271" t="s">
         <v>677</v>
@@ -8230,7 +8228,7 @@
         <v>4</v>
       </c>
       <c r="C273" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D273" t="s">
         <v>682</v>
@@ -8250,7 +8248,7 @@
         <v>4</v>
       </c>
       <c r="C274" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D274" t="s">
         <v>685</v>
@@ -8281,7 +8279,7 @@
         <v>4</v>
       </c>
       <c r="C276" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D276" t="s">
         <v>689</v>
@@ -8301,7 +8299,7 @@
         <v>4</v>
       </c>
       <c r="C277" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D277" t="s">
         <v>692</v>
@@ -8332,7 +8330,7 @@
         <v>4</v>
       </c>
       <c r="C279" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D279" t="s">
         <v>696</v>
@@ -8352,7 +8350,7 @@
         <v>4</v>
       </c>
       <c r="C280" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D280" t="s">
         <v>699</v>
@@ -8397,7 +8395,7 @@
         <v>4</v>
       </c>
       <c r="C283" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D283" t="s">
         <v>706</v>
@@ -8428,7 +8426,7 @@
         <v>4</v>
       </c>
       <c r="C285" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D285" t="s">
         <v>710</v>
@@ -8459,7 +8457,7 @@
         <v>4</v>
       </c>
       <c r="C287" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D287" t="s">
         <v>715</v>
@@ -8490,7 +8488,7 @@
         <v>4</v>
       </c>
       <c r="C289" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D289" t="s">
         <v>720</v>
@@ -8510,7 +8508,7 @@
         <v>4</v>
       </c>
       <c r="C290" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D290" t="s">
         <v>723</v>
@@ -8566,7 +8564,7 @@
         <v>4</v>
       </c>
       <c r="C294" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D294" t="s">
         <v>733</v>
@@ -8611,7 +8609,7 @@
         <v>4</v>
       </c>
       <c r="C297" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D297" t="s">
         <v>741</v>
@@ -8642,7 +8640,7 @@
         <v>4</v>
       </c>
       <c r="C299" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D299" t="s">
         <v>746</v>
@@ -8662,7 +8660,7 @@
         <v>4</v>
       </c>
       <c r="C300" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D300" t="s">
         <v>749</v>
@@ -8693,7 +8691,7 @@
         <v>4</v>
       </c>
       <c r="C302" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D302" t="s">
         <v>754</v>
@@ -8713,7 +8711,7 @@
         <v>4</v>
       </c>
       <c r="C303" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D303" t="s">
         <v>756</v>
@@ -8744,7 +8742,7 @@
         <v>4</v>
       </c>
       <c r="C305" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D305" t="s">
         <v>760</v>
@@ -8775,7 +8773,7 @@
         <v>4</v>
       </c>
       <c r="C307" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D307" t="s">
         <v>765</v>
@@ -8820,7 +8818,7 @@
         <v>4</v>
       </c>
       <c r="C310" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D310" t="s">
         <v>772</v>
@@ -8840,7 +8838,7 @@
         <v>4</v>
       </c>
       <c r="C311" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D311" t="s">
         <v>774</v>
@@ -8871,7 +8869,7 @@
         <v>4</v>
       </c>
       <c r="C313" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D313" t="s">
         <v>778</v>
@@ -8891,7 +8889,7 @@
         <v>4</v>
       </c>
       <c r="C314" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D314" t="s">
         <v>781</v>
@@ -8922,7 +8920,7 @@
         <v>4</v>
       </c>
       <c r="C316" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D316" t="s">
         <v>786</v>
@@ -8942,7 +8940,7 @@
         <v>4</v>
       </c>
       <c r="C317" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D317" t="s">
         <v>788</v>
@@ -8973,7 +8971,7 @@
         <v>4</v>
       </c>
       <c r="C319" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D319" t="s">
         <v>793</v>
@@ -9004,7 +9002,7 @@
         <v>4</v>
       </c>
       <c r="C321" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D321" t="s">
         <v>798</v>
@@ -9024,7 +9022,7 @@
         <v>4</v>
       </c>
       <c r="C322" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D322" t="s">
         <v>801</v>
@@ -9069,7 +9067,7 @@
         <v>4</v>
       </c>
       <c r="C325" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D325" t="s">
         <v>808</v>
@@ -9114,7 +9112,7 @@
         <v>4</v>
       </c>
       <c r="C328" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D328" t="s">
         <v>816</v>
@@ -9134,7 +9132,7 @@
         <v>4</v>
       </c>
       <c r="C329" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D329" t="s">
         <v>819</v>
@@ -9165,7 +9163,7 @@
         <v>4</v>
       </c>
       <c r="C331" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D331" t="s">
         <v>823</v>
@@ -9221,7 +9219,7 @@
         <v>4</v>
       </c>
       <c r="C335" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D335" t="s">
         <v>833</v>
@@ -9241,7 +9239,7 @@
         <v>4</v>
       </c>
       <c r="C336" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D336" t="s">
         <v>836</v>
@@ -9286,7 +9284,7 @@
         <v>4</v>
       </c>
       <c r="C339" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D339" t="s">
         <v>842</v>
@@ -9331,7 +9329,7 @@
         <v>4</v>
       </c>
       <c r="C342" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D342" t="s">
         <v>848</v>
@@ -9351,7 +9349,7 @@
         <v>4</v>
       </c>
       <c r="C343" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D343" t="s">
         <v>851</v>
@@ -9382,7 +9380,7 @@
         <v>4</v>
       </c>
       <c r="C345" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D345" t="s">
         <v>856</v>
@@ -9413,7 +9411,7 @@
         <v>4</v>
       </c>
       <c r="C347" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D347" t="s">
         <v>861</v>
@@ -9435,13 +9433,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8EE66F-5BF1-6F47-9F88-8D8C53839AC6}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="54.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="161.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -9488,7 +9486,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9496,10 +9494,10 @@
         <v>899</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9507,7 +9505,7 @@
         <v>900</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>905</v>
+        <v>920</v>
       </c>
     </row>
   </sheetData>
@@ -9538,26 +9536,26 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B2" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B3" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B4" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
   </sheetData>

--- a/tools/ccb/ccb-cff-2023-03-01.xlsx
+++ b/tools/ccb/ccb-cff-2023-03-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/ccb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC6BB1A-58AC-184B-8FEA-C488728ACD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBF23A2-3786-1B49-833B-C2559CA6FA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2938,15 +2938,6 @@
     <t>Optimizing</t>
   </si>
   <si>
-    <t>Process unpredictable, reactive, not documented &amp; poorly controlled</t>
-  </si>
-  <si>
-    <t>Ad Hoc Processes, mostly informal, project oriented &amp; often reactive</t>
-  </si>
-  <si>
-    <t>Formal processes, organisation oriented &amp; proactive</t>
-  </si>
-  <si>
     <t>scores</t>
   </si>
   <si>
@@ -2993,19 +2984,42 @@
 https://ccb.belgium.be</t>
   </si>
   <si>
-    <t>Formal processes, organisation oriented, controlled, proactive &amp; measured</t>
-  </si>
-  <si>
-    <t>Formal processes, organisation oriented, controlled, proactive, measured &amp; continual improvement focus</t>
+    <t>No Process documentation or not formally approved by management.
+Standard process does not exist.</t>
+  </si>
+  <si>
+    <t>Formally approved Process documentation exists but not reviewed in the previous 2 years.
+Ad-hoc process exists and is done informally.</t>
+  </si>
+  <si>
+    <t>Formally approved Process documentation exists, and exceptions are documented and approved. Documented &amp; approved exceptions &lt; 5% of the time.
+Formal process exists and is implemented. Evidence available for most activities. Less than 10% process exceptions.</t>
+  </si>
+  <si>
+    <t>Formally approved Process documentation exists, and exceptions are documented and approved. Documented &amp; approved exceptions &lt; 3% of the time.
+Formal process exists and is implemented. Evidence available for all activities. Detailed metrics of the process are captured and reported.
+Minimal target for metrics has been established. Less than 5% of process exceptions.</t>
+  </si>
+  <si>
+    <t>Formally approved Process documentation exists, and exceptions are documented and approved. Documented &amp; approved exceptions &lt; 0,5% of the time.
+Formal process exists and is implemented. Evidence available for all activities. Detailed metrics of the process are captured and reported.
+Minimal target for metrics has been established and continually improving. Less than 1% of process exceptions.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3059,23 +3073,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3437,7 +3458,7 @@
         <v>874</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3512,10 +3533,10 @@
         <v>887</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="C15" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -3523,10 +3544,10 @@
         <v>887</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C16" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
   </sheetData>
@@ -3562,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>864</v>
@@ -3621,7 +3642,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -3641,7 +3662,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -3661,7 +3682,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -3681,7 +3702,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -3712,7 +3733,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -3732,7 +3753,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
@@ -3752,7 +3773,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
@@ -3772,7 +3793,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D13" t="s">
         <v>35</v>
@@ -3792,7 +3813,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
@@ -3823,7 +3844,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D16" t="s">
         <v>43</v>
@@ -3843,7 +3864,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D17" t="s">
         <v>46</v>
@@ -3863,7 +3884,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D18" t="s">
         <v>49</v>
@@ -3894,7 +3915,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D20" t="s">
         <v>54</v>
@@ -3914,7 +3935,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D21" t="s">
         <v>57</v>
@@ -3945,7 +3966,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D23" t="s">
         <v>62</v>
@@ -3976,7 +3997,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D25" t="s">
         <v>67</v>
@@ -3996,7 +4017,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D26" t="s">
         <v>70</v>
@@ -4041,7 +4062,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D29" t="s">
         <v>78</v>
@@ -4061,7 +4082,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D30" t="s">
         <v>81</v>
@@ -4092,7 +4113,7 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D32" t="s">
         <v>890</v>
@@ -4123,7 +4144,7 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D34" t="s">
         <v>891</v>
@@ -4154,7 +4175,7 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D36" t="s">
         <v>892</v>
@@ -4185,7 +4206,7 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D38" t="s">
         <v>97</v>
@@ -4205,7 +4226,7 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D39" t="s">
         <v>100</v>
@@ -4225,7 +4246,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D40" t="s">
         <v>103</v>
@@ -4270,7 +4291,7 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D43" t="s">
         <v>111</v>
@@ -4290,7 +4311,7 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D44" t="s">
         <v>114</v>
@@ -4321,7 +4342,7 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D46" t="s">
         <v>119</v>
@@ -4341,7 +4362,7 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D47" t="s">
         <v>122</v>
@@ -4372,7 +4393,7 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D49" t="s">
         <v>127</v>
@@ -4392,7 +4413,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D50" t="s">
         <v>130</v>
@@ -4437,7 +4458,7 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D53" t="s">
         <v>138</v>
@@ -4457,7 +4478,7 @@
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D54" t="s">
         <v>141</v>
@@ -4477,7 +4498,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D55" t="s">
         <v>144</v>
@@ -4508,7 +4529,7 @@
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D57" t="s">
         <v>149</v>
@@ -4528,7 +4549,7 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D58" t="s">
         <v>152</v>
@@ -4559,7 +4580,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D60" t="s">
         <v>156</v>
@@ -4579,7 +4600,7 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D61" t="s">
         <v>159</v>
@@ -4599,7 +4620,7 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D62" t="s">
         <v>162</v>
@@ -4630,7 +4651,7 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D64" t="s">
         <v>166</v>
@@ -4675,7 +4696,7 @@
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D67" t="s">
         <v>174</v>
@@ -4706,7 +4727,7 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D69" t="s">
         <v>179</v>
@@ -4737,7 +4758,7 @@
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D71" t="s">
         <v>184</v>
@@ -4782,7 +4803,7 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D74" t="s">
         <v>191</v>
@@ -4813,7 +4834,7 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D76" t="s">
         <v>195</v>
@@ -4833,7 +4854,7 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D77" t="s">
         <v>198</v>
@@ -4864,7 +4885,7 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D79" t="s">
         <v>203</v>
@@ -4884,7 +4905,7 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D80" t="s">
         <v>206</v>
@@ -4904,7 +4925,7 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D81" t="s">
         <v>209</v>
@@ -4935,7 +4956,7 @@
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D83" t="s">
         <v>213</v>
@@ -4955,7 +4976,7 @@
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D84" t="s">
         <v>216</v>
@@ -4986,7 +5007,7 @@
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D86" t="s">
         <v>221</v>
@@ -5006,7 +5027,7 @@
         <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D87" t="s">
         <v>223</v>
@@ -5062,13 +5083,13 @@
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D91" t="s">
         <v>232</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>233</v>
@@ -5082,7 +5103,7 @@
         <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D92" t="s">
         <v>234</v>
@@ -5102,7 +5123,7 @@
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D93" t="s">
         <v>237</v>
@@ -5122,7 +5143,7 @@
         <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D94" t="s">
         <v>240</v>
@@ -5142,7 +5163,7 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D95" t="s">
         <v>243</v>
@@ -5173,7 +5194,7 @@
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D97" t="s">
         <v>248</v>
@@ -5193,7 +5214,7 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D98" t="s">
         <v>251</v>
@@ -5213,7 +5234,7 @@
         <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D99" t="s">
         <v>254</v>
@@ -5233,7 +5254,7 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D100" t="s">
         <v>257</v>
@@ -5264,7 +5285,7 @@
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D102" t="s">
         <v>262</v>
@@ -5284,7 +5305,7 @@
         <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D103" t="s">
         <v>265</v>
@@ -5304,7 +5325,7 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D104" t="s">
         <v>268</v>
@@ -5324,7 +5345,7 @@
         <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D105" t="s">
         <v>271</v>
@@ -5344,7 +5365,7 @@
         <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D106" t="s">
         <v>274</v>
@@ -5375,7 +5396,7 @@
         <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D108" t="s">
         <v>279</v>
@@ -5395,7 +5416,7 @@
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D109" t="s">
         <v>282</v>
@@ -5415,13 +5436,13 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D110" t="s">
         <v>285</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>286</v>
@@ -5435,13 +5456,13 @@
         <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D111" t="s">
         <v>287</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>288</v>
@@ -5455,7 +5476,7 @@
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D112" t="s">
         <v>289</v>
@@ -5475,7 +5496,7 @@
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D113" t="s">
         <v>292</v>
@@ -5495,7 +5516,7 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D114" t="s">
         <v>295</v>
@@ -5515,7 +5536,7 @@
         <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D115" t="s">
         <v>297</v>
@@ -5535,7 +5556,7 @@
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D116" t="s">
         <v>300</v>
@@ -5566,7 +5587,7 @@
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D118" t="s">
         <v>304</v>
@@ -5586,7 +5607,7 @@
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D119" t="s">
         <v>307</v>
@@ -5606,7 +5627,7 @@
         <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D120" t="s">
         <v>310</v>
@@ -5626,7 +5647,7 @@
         <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D121" t="s">
         <v>313</v>
@@ -5646,7 +5667,7 @@
         <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D122" t="s">
         <v>316</v>
@@ -5666,7 +5687,7 @@
         <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D123" t="s">
         <v>318</v>
@@ -5697,7 +5718,7 @@
         <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D125" t="s">
         <v>322</v>
@@ -5717,7 +5738,7 @@
         <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D126" t="s">
         <v>324</v>
@@ -5748,7 +5769,7 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D128" t="s">
         <v>328</v>
@@ -5793,7 +5814,7 @@
         <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D131" t="s">
         <v>336</v>
@@ -5813,7 +5834,7 @@
         <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D132" t="s">
         <v>339</v>
@@ -5833,7 +5854,7 @@
         <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D133" t="s">
         <v>342</v>
@@ -5864,7 +5885,7 @@
         <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D135" t="s">
         <v>346</v>
@@ -5895,7 +5916,7 @@
         <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D137" t="s">
         <v>350</v>
@@ -5915,7 +5936,7 @@
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D138" t="s">
         <v>353</v>
@@ -5935,7 +5956,7 @@
         <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D139" t="s">
         <v>356</v>
@@ -5955,7 +5976,7 @@
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D140" t="s">
         <v>359</v>
@@ -5986,7 +6007,7 @@
         <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D142" t="s">
         <v>363</v>
@@ -6017,7 +6038,7 @@
         <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D144" t="s">
         <v>368</v>
@@ -6062,7 +6083,7 @@
         <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D147" t="s">
         <v>375</v>
@@ -6093,7 +6114,7 @@
         <v>4</v>
       </c>
       <c r="C149" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D149" t="s">
         <v>380</v>
@@ -6124,7 +6145,7 @@
         <v>4</v>
       </c>
       <c r="C151" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D151" t="s">
         <v>385</v>
@@ -6144,7 +6165,7 @@
         <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D152" t="s">
         <v>388</v>
@@ -6164,7 +6185,7 @@
         <v>4</v>
       </c>
       <c r="C153" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D153" t="s">
         <v>391</v>
@@ -6184,7 +6205,7 @@
         <v>4</v>
       </c>
       <c r="C154" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D154" t="s">
         <v>394</v>
@@ -6215,7 +6236,7 @@
         <v>4</v>
       </c>
       <c r="C156" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D156" t="s">
         <v>399</v>
@@ -6235,7 +6256,7 @@
         <v>4</v>
       </c>
       <c r="C157" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D157" t="s">
         <v>893</v>
@@ -6255,7 +6276,7 @@
         <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D158" t="s">
         <v>403</v>
@@ -6286,7 +6307,7 @@
         <v>4</v>
       </c>
       <c r="C160" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D160" t="s">
         <v>407</v>
@@ -6317,7 +6338,7 @@
         <v>4</v>
       </c>
       <c r="C162" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D162" t="s">
         <v>412</v>
@@ -6337,7 +6358,7 @@
         <v>4</v>
       </c>
       <c r="C163" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D163" t="s">
         <v>415</v>
@@ -6357,7 +6378,7 @@
         <v>4</v>
       </c>
       <c r="C164" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D164" t="s">
         <v>417</v>
@@ -6388,7 +6409,7 @@
         <v>4</v>
       </c>
       <c r="C166" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D166" t="s">
         <v>421</v>
@@ -6419,7 +6440,7 @@
         <v>4</v>
       </c>
       <c r="C168" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D168" t="s">
         <v>426</v>
@@ -6439,7 +6460,7 @@
         <v>4</v>
       </c>
       <c r="C169" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D169" t="s">
         <v>428</v>
@@ -6462,7 +6483,7 @@
         <v>431</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -6484,7 +6505,7 @@
         <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D172" t="s">
         <v>434</v>
@@ -6504,7 +6525,7 @@
         <v>4</v>
       </c>
       <c r="C173" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D173" t="s">
         <v>437</v>
@@ -6535,7 +6556,7 @@
         <v>4</v>
       </c>
       <c r="C175" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D175" t="s">
         <v>442</v>
@@ -6555,7 +6576,7 @@
         <v>4</v>
       </c>
       <c r="C176" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D176" t="s">
         <v>445</v>
@@ -6586,7 +6607,7 @@
         <v>4</v>
       </c>
       <c r="C178" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D178" t="s">
         <v>450</v>
@@ -6606,7 +6627,7 @@
         <v>4</v>
       </c>
       <c r="C179" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D179" t="s">
         <v>452</v>
@@ -6637,7 +6658,7 @@
         <v>4</v>
       </c>
       <c r="C181" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D181" t="s">
         <v>456</v>
@@ -6657,7 +6678,7 @@
         <v>4</v>
       </c>
       <c r="C182" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D182" t="s">
         <v>459</v>
@@ -6677,7 +6698,7 @@
         <v>4</v>
       </c>
       <c r="C183" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D183" t="s">
         <v>462</v>
@@ -6697,7 +6718,7 @@
         <v>4</v>
       </c>
       <c r="C184" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D184" t="s">
         <v>465</v>
@@ -6717,7 +6738,7 @@
         <v>4</v>
       </c>
       <c r="C185" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D185" t="s">
         <v>468</v>
@@ -6748,7 +6769,7 @@
         <v>4</v>
       </c>
       <c r="C187" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D187" t="s">
         <v>473</v>
@@ -6768,7 +6789,7 @@
         <v>4</v>
       </c>
       <c r="C188" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D188" t="s">
         <v>476</v>
@@ -6799,7 +6820,7 @@
         <v>4</v>
       </c>
       <c r="C190" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D190" t="s">
         <v>480</v>
@@ -6819,7 +6840,7 @@
         <v>4</v>
       </c>
       <c r="C191" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D191" t="s">
         <v>483</v>
@@ -6850,7 +6871,7 @@
         <v>4</v>
       </c>
       <c r="C193" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D193" t="s">
         <v>488</v>
@@ -6870,7 +6891,7 @@
         <v>4</v>
       </c>
       <c r="C194" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D194" t="s">
         <v>490</v>
@@ -6890,7 +6911,7 @@
         <v>4</v>
       </c>
       <c r="C195" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D195" t="s">
         <v>493</v>
@@ -6921,7 +6942,7 @@
         <v>4</v>
       </c>
       <c r="C197" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D197" t="s">
         <v>497</v>
@@ -6941,7 +6962,7 @@
         <v>4</v>
       </c>
       <c r="C198" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D198" t="s">
         <v>499</v>
@@ -6961,7 +6982,7 @@
         <v>4</v>
       </c>
       <c r="C199" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D199" t="s">
         <v>501</v>
@@ -6992,7 +7013,7 @@
         <v>4</v>
       </c>
       <c r="C201" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D201" t="s">
         <v>505</v>
@@ -7012,7 +7033,7 @@
         <v>4</v>
       </c>
       <c r="C202" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D202" t="s">
         <v>508</v>
@@ -7043,7 +7064,7 @@
         <v>4</v>
       </c>
       <c r="C204" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D204" t="s">
         <v>513</v>
@@ -7063,7 +7084,7 @@
         <v>4</v>
       </c>
       <c r="C205" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D205" t="s">
         <v>516</v>
@@ -7094,7 +7115,7 @@
         <v>4</v>
       </c>
       <c r="C207" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D207" t="s">
         <v>521</v>
@@ -7139,7 +7160,7 @@
         <v>4</v>
       </c>
       <c r="C210" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D210" t="s">
         <v>529</v>
@@ -7159,7 +7180,7 @@
         <v>4</v>
       </c>
       <c r="C211" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D211" t="s">
         <v>532</v>
@@ -7179,7 +7200,7 @@
         <v>4</v>
       </c>
       <c r="C212" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D212" t="s">
         <v>535</v>
@@ -7199,7 +7220,7 @@
         <v>4</v>
       </c>
       <c r="C213" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D213" t="s">
         <v>538</v>
@@ -7219,7 +7240,7 @@
         <v>4</v>
       </c>
       <c r="C214" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D214" t="s">
         <v>541</v>
@@ -7239,7 +7260,7 @@
         <v>4</v>
       </c>
       <c r="C215" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D215" t="s">
         <v>544</v>
@@ -7259,7 +7280,7 @@
         <v>4</v>
       </c>
       <c r="C216" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D216" t="s">
         <v>546</v>
@@ -7290,7 +7311,7 @@
         <v>4</v>
       </c>
       <c r="C218" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D218" t="s">
         <v>550</v>
@@ -7310,7 +7331,7 @@
         <v>4</v>
       </c>
       <c r="C219" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D219" t="s">
         <v>552</v>
@@ -7330,7 +7351,7 @@
         <v>4</v>
       </c>
       <c r="C220" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D220" t="s">
         <v>554</v>
@@ -7375,7 +7396,7 @@
         <v>4</v>
       </c>
       <c r="C223" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D223" t="s">
         <v>561</v>
@@ -7395,7 +7416,7 @@
         <v>4</v>
       </c>
       <c r="C224" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D224" t="s">
         <v>564</v>
@@ -7415,7 +7436,7 @@
         <v>4</v>
       </c>
       <c r="C225" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D225" t="s">
         <v>567</v>
@@ -7435,7 +7456,7 @@
         <v>4</v>
       </c>
       <c r="C226" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D226" t="s">
         <v>570</v>
@@ -7466,7 +7487,7 @@
         <v>4</v>
       </c>
       <c r="C228" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D228" t="s">
         <v>574</v>
@@ -7486,7 +7507,7 @@
         <v>4</v>
       </c>
       <c r="C229" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D229" t="s">
         <v>576</v>
@@ -7506,7 +7527,7 @@
         <v>4</v>
       </c>
       <c r="C230" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D230" t="s">
         <v>578</v>
@@ -7537,7 +7558,7 @@
         <v>4</v>
       </c>
       <c r="C232" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D232" t="s">
         <v>583</v>
@@ -7557,7 +7578,7 @@
         <v>4</v>
       </c>
       <c r="C233" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D233" t="s">
         <v>586</v>
@@ -7577,7 +7598,7 @@
         <v>4</v>
       </c>
       <c r="C234" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D234" t="s">
         <v>588</v>
@@ -7608,7 +7629,7 @@
         <v>4</v>
       </c>
       <c r="C236" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D236" t="s">
         <v>592</v>
@@ -7628,7 +7649,7 @@
         <v>4</v>
       </c>
       <c r="C237" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D237" t="s">
         <v>595</v>
@@ -7648,7 +7669,7 @@
         <v>4</v>
       </c>
       <c r="C238" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D238" t="s">
         <v>598</v>
@@ -7704,7 +7725,7 @@
         <v>4</v>
       </c>
       <c r="C242" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D242" t="s">
         <v>607</v>
@@ -7735,7 +7756,7 @@
         <v>4</v>
       </c>
       <c r="C244" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D244" t="s">
         <v>612</v>
@@ -7755,7 +7776,7 @@
         <v>4</v>
       </c>
       <c r="C245" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D245" t="s">
         <v>614</v>
@@ -7786,7 +7807,7 @@
         <v>4</v>
       </c>
       <c r="C247" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D247" t="s">
         <v>619</v>
@@ -7806,7 +7827,7 @@
         <v>4</v>
       </c>
       <c r="C248" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D248" t="s">
         <v>622</v>
@@ -7826,7 +7847,7 @@
         <v>4</v>
       </c>
       <c r="C249" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D249" t="s">
         <v>624</v>
@@ -7857,7 +7878,7 @@
         <v>4</v>
       </c>
       <c r="C251" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D251" t="s">
         <v>628</v>
@@ -7888,7 +7909,7 @@
         <v>4</v>
       </c>
       <c r="C253" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D253" t="s">
         <v>632</v>
@@ -7908,7 +7929,7 @@
         <v>4</v>
       </c>
       <c r="C254" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D254" t="s">
         <v>634</v>
@@ -7953,7 +7974,7 @@
         <v>4</v>
       </c>
       <c r="C257" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D257" t="s">
         <v>641</v>
@@ -7973,7 +7994,7 @@
         <v>4</v>
       </c>
       <c r="C258" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D258" t="s">
         <v>644</v>
@@ -7993,7 +8014,7 @@
         <v>4</v>
       </c>
       <c r="C259" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D259" t="s">
         <v>647</v>
@@ -8024,7 +8045,7 @@
         <v>4</v>
       </c>
       <c r="C261" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D261" t="s">
         <v>652</v>
@@ -8044,7 +8065,7 @@
         <v>4</v>
       </c>
       <c r="C262" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D262" t="s">
         <v>654</v>
@@ -8075,7 +8096,7 @@
         <v>4</v>
       </c>
       <c r="C264" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D264" t="s">
         <v>659</v>
@@ -8095,7 +8116,7 @@
         <v>4</v>
       </c>
       <c r="C265" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D265" t="s">
         <v>662</v>
@@ -8115,7 +8136,7 @@
         <v>4</v>
       </c>
       <c r="C266" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D266" t="s">
         <v>665</v>
@@ -8146,7 +8167,7 @@
         <v>4</v>
       </c>
       <c r="C268" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D268" t="s">
         <v>670</v>
@@ -8166,7 +8187,7 @@
         <v>4</v>
       </c>
       <c r="C269" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D269" t="s">
         <v>673</v>
@@ -8197,7 +8218,7 @@
         <v>4</v>
       </c>
       <c r="C271" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D271" t="s">
         <v>677</v>
@@ -8228,7 +8249,7 @@
         <v>4</v>
       </c>
       <c r="C273" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D273" t="s">
         <v>682</v>
@@ -8248,7 +8269,7 @@
         <v>4</v>
       </c>
       <c r="C274" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D274" t="s">
         <v>685</v>
@@ -8279,7 +8300,7 @@
         <v>4</v>
       </c>
       <c r="C276" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D276" t="s">
         <v>689</v>
@@ -8299,7 +8320,7 @@
         <v>4</v>
       </c>
       <c r="C277" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D277" t="s">
         <v>692</v>
@@ -8330,7 +8351,7 @@
         <v>4</v>
       </c>
       <c r="C279" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D279" t="s">
         <v>696</v>
@@ -8350,7 +8371,7 @@
         <v>4</v>
       </c>
       <c r="C280" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D280" t="s">
         <v>699</v>
@@ -8395,7 +8416,7 @@
         <v>4</v>
       </c>
       <c r="C283" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D283" t="s">
         <v>706</v>
@@ -8426,7 +8447,7 @@
         <v>4</v>
       </c>
       <c r="C285" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D285" t="s">
         <v>710</v>
@@ -8457,7 +8478,7 @@
         <v>4</v>
       </c>
       <c r="C287" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D287" t="s">
         <v>715</v>
@@ -8488,7 +8509,7 @@
         <v>4</v>
       </c>
       <c r="C289" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D289" t="s">
         <v>720</v>
@@ -8508,7 +8529,7 @@
         <v>4</v>
       </c>
       <c r="C290" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D290" t="s">
         <v>723</v>
@@ -8564,7 +8585,7 @@
         <v>4</v>
       </c>
       <c r="C294" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D294" t="s">
         <v>733</v>
@@ -8609,7 +8630,7 @@
         <v>4</v>
       </c>
       <c r="C297" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D297" t="s">
         <v>741</v>
@@ -8640,7 +8661,7 @@
         <v>4</v>
       </c>
       <c r="C299" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D299" t="s">
         <v>746</v>
@@ -8660,7 +8681,7 @@
         <v>4</v>
       </c>
       <c r="C300" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D300" t="s">
         <v>749</v>
@@ -8691,7 +8712,7 @@
         <v>4</v>
       </c>
       <c r="C302" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D302" t="s">
         <v>754</v>
@@ -8711,7 +8732,7 @@
         <v>4</v>
       </c>
       <c r="C303" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D303" t="s">
         <v>756</v>
@@ -8742,7 +8763,7 @@
         <v>4</v>
       </c>
       <c r="C305" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D305" t="s">
         <v>760</v>
@@ -8773,7 +8794,7 @@
         <v>4</v>
       </c>
       <c r="C307" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D307" t="s">
         <v>765</v>
@@ -8818,7 +8839,7 @@
         <v>4</v>
       </c>
       <c r="C310" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D310" t="s">
         <v>772</v>
@@ -8838,7 +8859,7 @@
         <v>4</v>
       </c>
       <c r="C311" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D311" t="s">
         <v>774</v>
@@ -8869,7 +8890,7 @@
         <v>4</v>
       </c>
       <c r="C313" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D313" t="s">
         <v>778</v>
@@ -8889,7 +8910,7 @@
         <v>4</v>
       </c>
       <c r="C314" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D314" t="s">
         <v>781</v>
@@ -8920,7 +8941,7 @@
         <v>4</v>
       </c>
       <c r="C316" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D316" t="s">
         <v>786</v>
@@ -8940,7 +8961,7 @@
         <v>4</v>
       </c>
       <c r="C317" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D317" t="s">
         <v>788</v>
@@ -8971,7 +8992,7 @@
         <v>4</v>
       </c>
       <c r="C319" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D319" t="s">
         <v>793</v>
@@ -9002,7 +9023,7 @@
         <v>4</v>
       </c>
       <c r="C321" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D321" t="s">
         <v>798</v>
@@ -9022,7 +9043,7 @@
         <v>4</v>
       </c>
       <c r="C322" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D322" t="s">
         <v>801</v>
@@ -9067,7 +9088,7 @@
         <v>4</v>
       </c>
       <c r="C325" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D325" t="s">
         <v>808</v>
@@ -9112,7 +9133,7 @@
         <v>4</v>
       </c>
       <c r="C328" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D328" t="s">
         <v>816</v>
@@ -9132,7 +9153,7 @@
         <v>4</v>
       </c>
       <c r="C329" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D329" t="s">
         <v>819</v>
@@ -9163,7 +9184,7 @@
         <v>4</v>
       </c>
       <c r="C331" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D331" t="s">
         <v>823</v>
@@ -9219,7 +9240,7 @@
         <v>4</v>
       </c>
       <c r="C335" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D335" t="s">
         <v>833</v>
@@ -9239,7 +9260,7 @@
         <v>4</v>
       </c>
       <c r="C336" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D336" t="s">
         <v>836</v>
@@ -9284,7 +9305,7 @@
         <v>4</v>
       </c>
       <c r="C339" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D339" t="s">
         <v>842</v>
@@ -9329,7 +9350,7 @@
         <v>4</v>
       </c>
       <c r="C342" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D342" t="s">
         <v>848</v>
@@ -9349,7 +9370,7 @@
         <v>4</v>
       </c>
       <c r="C343" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D343" t="s">
         <v>851</v>
@@ -9380,7 +9401,7 @@
         <v>4</v>
       </c>
       <c r="C345" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D345" t="s">
         <v>856</v>
@@ -9411,7 +9432,7 @@
         <v>4</v>
       </c>
       <c r="C347" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D347" t="s">
         <v>861</v>
@@ -9433,78 +9454,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8EE66F-5BF1-6F47-9F88-8D8C53839AC6}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="161.1640625" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" style="7"/>
+    <col min="3" max="3" width="161.1640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="30.1640625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>895</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>896</v>
       </c>
-      <c r="C2" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="C2" s="8" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>897</v>
       </c>
-      <c r="C3" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C3" s="9" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>898</v>
       </c>
-      <c r="C4" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C4" s="9" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>899</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="9" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>900</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="9" t="s">
         <v>920</v>
       </c>
     </row>
@@ -9536,26 +9560,26 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>903</v>
+      </c>
+      <c r="B2" t="s">
         <v>906</v>
-      </c>
-      <c r="B2" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>904</v>
+      </c>
+      <c r="B3" t="s">
         <v>907</v>
-      </c>
-      <c r="B3" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>905</v>
+      </c>
+      <c r="B4" t="s">
         <v>908</v>
-      </c>
-      <c r="B4" t="s">
-        <v>911</v>
       </c>
     </row>
   </sheetData>

--- a/tools/ccb/ccb-cff-2023-03-01.xlsx
+++ b/tools/ccb/ccb-cff-2023-03-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/ccb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBF23A2-3786-1B49-833B-C2559CA6FA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BAEEAA-87F3-934D-8892-F19C4B0887FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="923">
   <si>
     <t>assessable</t>
   </si>
@@ -3004,6 +3004,12 @@
     <t>Formally approved Process documentation exists, and exceptions are documented and approved. Documented &amp; approved exceptions &lt; 0,5% of the time.
 Formal process exists and is implemented. Evidence available for all activities. Detailed metrics of the process are captured and reported.
 Minimal target for metrics has been established and continually improving. Less than 1% of process exceptions.</t>
+  </si>
+  <si>
+    <t>framework_min_score</t>
+  </si>
+  <si>
+    <t>framework_max_score</t>
   </si>
 </sst>
 </file>
@@ -3073,7 +3079,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3091,12 +3097,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3400,10 +3402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699B1651-6DC7-1E43-A5B6-8EF15B32842F}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView zoomScale="231" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="231" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3426,7 +3428,7 @@
         <v>867</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3519,24 +3521,18 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>887</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="C14" t="s">
-        <v>889</v>
+        <v>921</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>887</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="C15" t="s">
-        <v>901</v>
+        <v>922</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -3544,9 +3540,31 @@
         <v>887</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="C16" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>887</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="C17" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>887</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>902</v>
       </c>
     </row>
@@ -9454,81 +9472,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8EE66F-5BF1-6F47-9F88-8D8C53839AC6}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+    <sheetView zoomScale="200" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="7"/>
-    <col min="3" max="3" width="161.1640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="30.1640625" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="7"/>
+    <col min="3" max="3" width="161.1640625" customWidth="1"/>
+    <col min="4" max="4" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" t="s">
         <v>895</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" t="s">
         <v>896</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" t="s">
         <v>897</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="4" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>898</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="4" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>899</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="4" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" t="s">
         <v>900</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="4" t="s">
         <v>920</v>
       </c>
     </row>

--- a/tools/ccb/ccb-cff-2023-03-01.xlsx
+++ b/tools/ccb/ccb-cff-2023-03-01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/ccb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BAEEAA-87F3-934D-8892-F19C4B0887FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0124940-EB5E-564C-8F13-91C6972E6548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="22700" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="2" r:id="rId1"/>
@@ -21,12 +21,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cff!$A$1:$G$347</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="933">
   <si>
     <t>assessable</t>
   </si>
@@ -264,9 +277,6 @@
     <t>IMPORTANT_ID.AM-6.1</t>
   </si>
   <si>
-    <t>Information security and cybersecurity roles, responsibilities and authorities within the organization shall be documented, reviewed, authorized, and updated and alignment with organization-internal roles and external partners.  Key Measure</t>
-  </si>
-  <si>
     <t>It should be considered to:
 •	Describe security roles, responsibilities, and authorities: who in your organization should be consulted, informed, and held accountable for all or part of your assets.
 •	Provide security roles, responsibilities, and authority for all key functions in information/cyber security (legal, detection activities…).
@@ -704,17 +714,11 @@
     <t>ID.SC-3.2</t>
   </si>
   <si>
-    <t>Contractual information security and cybersecurity’ requirements for suppliers and third-party partners shall be implemented to ensure a verifiable flaw remediation process, and to ensure the correction of flaws identified during ‘information security and cybersecurity’ testing and evaluation.</t>
-  </si>
-  <si>
     <t>•	Information systems containing software (or firmware) affected by recently announced software flaws (and potential vulnerabilities resulting from those flaws) should be identified.
 •	Newly released security relevant patches, service packs, and hot fixes should be installed, and these  patches, service packs, and hot fixes are tested for effectiveness and potential side effects on the organization’s information systems before installation. Flaws discovered during security assessments, continuous monitoring, incident response activities, or information system error handling are also addressed expeditiously. Flaw remediation should be incorporated into configuration management as an emergency change.</t>
   </si>
   <si>
     <t>ID.SC-3.3</t>
-  </si>
-  <si>
-    <t>The organization shall establish contractual requirements permitting the organization to review the ‘information security and cybersecurity’ programs implemented by suppliers and third-party partners.</t>
   </si>
   <si>
     <t>ID.SC-4</t>
@@ -911,16 +915,10 @@
     <t>BASIC_PR.AC-3.2</t>
   </si>
   <si>
-    <t>The organization's networks when accessed remotely shall be secured, including through multi-factor authentication (MFA).</t>
-  </si>
-  <si>
     <t>Enforce MFA (e.g. 2FA) on Internet-facing systems, such as email, remote desktop, and Virtual Private Network (VPNs).</t>
   </si>
   <si>
     <t>IMPORTANT_PR.AC-3.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usage restrictions, connection requirements, implementation guidance, and authorizations for remote access to the organization’s critical systems environment shall be identified, documented and implemented. </t>
   </si>
   <si>
     <t>Consider the following:
@@ -955,9 +953,6 @@
   </si>
   <si>
     <t>BASIC_PR.AC-4.1</t>
-  </si>
-  <si>
-    <t>Access permissions for users to the organization’s systems shall be defined and managed.</t>
   </si>
   <si>
     <t>The following should be considered:
@@ -972,9 +967,6 @@
     <t>BASIC_PR.AC-4.2</t>
   </si>
   <si>
-    <t>It shall be identified who should have access to the organization's business's critical information and technology and the means to get access.</t>
-  </si>
-  <si>
     <t>Means to get access may include: a key, password, code, or administrative privilege.</t>
   </si>
   <si>
@@ -1047,9 +1039,6 @@
   </si>
   <si>
     <t>BASIC_PR.AC-5.1</t>
-  </si>
-  <si>
-    <t>Firewalls shall be installed and activated on all the organization's networks.</t>
   </si>
   <si>
     <t>Consider the following:
@@ -1063,9 +1052,6 @@
     <t>BASIC_PR.AC-5.2</t>
   </si>
   <si>
-    <t>Where appropriate, network integrity of the organization's critical systems shall be protected by incorporating network segmentation and segregation.</t>
-  </si>
-  <si>
     <t>•	Consider creating different security zones in the network (e.g. Basic network segmentation through VLAN’s or other network access control mechanisms) and control/monitor the traffic between these zones.
 •	When the network is "flat", the compromise of a vital network component can lead to the compromise of the entire network.</t>
   </si>
@@ -1073,18 +1059,10 @@
     <t>IMPORTANT_PR.AC-5.3</t>
   </si>
   <si>
-    <t>Where appropriate, network integrity of the organization's critical systems shall be protected by
-(1) Identifying, documenting, and controlling connections between system components.
-(2) Limiting external connections to the organization's critical systems.</t>
-  </si>
-  <si>
     <t>Boundary protection mechanisms include, for example, routers, gateways, unidirectional gateways, data diodes, and firewalls separating system components into logically separate networks or subnetworks.</t>
   </si>
   <si>
     <t>IMPORTANT_PR.AC-5.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The organization shall monitor and control connections and communications at the external boundary and at key internal boundaries within the organization's critical systems by implementing boundary protection devices where appropriate. </t>
   </si>
   <si>
     <t>Consider implementing the following recommendations:
@@ -1136,9 +1114,6 @@
     <t>IMPORTANT_PR.AC-7.1</t>
   </si>
   <si>
-    <t>The organization shall perform a documented risk assessment on organization's critical system transactions and authenticate users, devices, and other assets (e.g., single-factor, multi-factor) commensurate with the risk of the transaction (e.g., individuals’ security and privacy risks and other organizational risks).</t>
-  </si>
-  <si>
     <t>Consider a security-by-design approach for new systems; For existing systems a separate risk assessment should be used.</t>
   </si>
   <si>
@@ -1386,9 +1361,6 @@
     <t>IMPORTANT_PR.DS-5.1</t>
   </si>
   <si>
-    <t>The organization shall take appropriate actions resulting in the monitoring of its critical systems at external borders and critical internal points when unauthorized access and activities, including data leakage, is detected.</t>
-  </si>
-  <si>
     <t>•	Consider implementing dedicated protection measures (restricted access rights, daily backups, data encryption, installation of firewalls, etc.) for the most sensitive data.
 •	Consider frequent audit of the configuration of the central directory (Active Directory in Windows environment), with specific focus on the access to data of key persons in the company.</t>
   </si>
@@ -1468,9 +1440,6 @@
   </si>
   <si>
     <t>IMPORTANT_PR.IP-1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The organization shall develop, document, and maintain a baseline configuration for the its business critical systems. </t>
   </si>
   <si>
     <t>•	This control includes the concept of least functionality.
@@ -1545,9 +1514,6 @@
     <t>BASIC_PR.IP-4.1</t>
   </si>
   <si>
-    <t>Backups for organization's business critical data shall be conducted and stored on a system different from the device on which the original data resides</t>
-  </si>
-  <si>
     <t>•	Organization's business critical system's data includes for example software, configurations and settings, documentation, system configuration data including computer configuration backups, application configuration backups, etc.
 •	Consider a regular backup and put it offline periodically.
 •	Recovery time and recovery point objectives should be considered.
@@ -1779,9 +1745,6 @@
   </si>
   <si>
     <t>BASIC_PR.MA-1.1</t>
-  </si>
-  <si>
-    <t>Patches and security updates for Operating Systems and critical system components shall be installed.</t>
   </si>
   <si>
     <t>The following should be considered:
@@ -1824,24 +1787,15 @@
     <t>PR.MA-1.5</t>
   </si>
   <si>
-    <t>The organization shall prevent the unauthorized removal of maintenance equipment containing organization's critical system information.</t>
-  </si>
-  <si>
     <t>This requirement maily focuses mainly on OT/ICS environments.</t>
   </si>
   <si>
     <t>PR.MA-1.6</t>
   </si>
   <si>
-    <t xml:space="preserve">Maintenance tools and portable storage devices shall be inspected when  brought into the facility and shall be protected by anti-malware solutions so that they are scanned for malicious code before they are used on organization's systems. </t>
-  </si>
-  <si>
     <t>PR.MA-1.7</t>
   </si>
   <si>
-    <t>The organization shall verify security controls following hardware and software maintenance or repairs/patching and take action as appropriate.</t>
-  </si>
-  <si>
     <t>PR.MA-2</t>
   </si>
   <si>
@@ -1882,9 +1836,6 @@
   </si>
   <si>
     <t>BASIC_PR.PT-1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Logs shall be maintained, documented, and reviewed.</t>
   </si>
   <si>
     <t>•	Ensure the activity logging functionality of protection / detection hardware or software (e.g. firewalls, anti-virus) is enabled.
@@ -1935,9 +1886,6 @@
   </si>
   <si>
     <t>PR.PT-2.3</t>
-  </si>
-  <si>
-    <t>Portable storage devices containing system data shall be controlled and protected while in transit and in storage.</t>
   </si>
   <si>
     <t>Protection and control should include the scanning of all portable storage devices for malicious code before they are used on organization's systems.</t>
@@ -2028,9 +1976,6 @@
     <t>DE.AE-1.1</t>
   </si>
   <si>
-    <t>The organization shall ensure that a baseline of network operations and expected data flows for its critical systems is developed, documented and maintained to track events.</t>
-  </si>
-  <si>
     <t>•	Consider enabling local logging on all your systems and network devices and keep them for a certain period, for example up to 6 months.
 •	Ensure that your logs contain enough information (source, date, user, timestamp, etc.) and that you have enough storage space for their generation.
 •	Consider centralizing your logs.
@@ -2067,10 +2012,6 @@
     <t>BASIC_DE.AE-3.1</t>
   </si>
   <si>
-    <t>The activity logging functionality of protection / detection hardware or software 
-(e.g. firewalls, anti-virus) shall be enabled, backed-up and reviewed.</t>
-  </si>
-  <si>
     <t>•	Logs should be backed up and saved for a predefined period.
 •	The logs should be reviewed for any unusual or unwanted trends, such as a large use of social media websites or an unusual number of viruses consistently found on a particular computer. These trends may indicate a more serious problem or signal the need for stronger protections in a particular area.</t>
   </si>
@@ -2144,9 +2085,6 @@
   </si>
   <si>
     <t>IMPORTANT_DE.CM-1.2</t>
-  </si>
-  <si>
-    <t>The organization shall monitor and identify unauthorized use of its business critical systems through the detection of unauthorized local connections, network connections and remote connections.</t>
   </si>
   <si>
     <t>•	Monitoring of network communications should happen at the external boundary of the organization's business critical systems and at key internal boundaries within the systems.
@@ -2230,9 +2168,6 @@
     <t>BASIC_DE.CM-4.1</t>
   </si>
   <si>
-    <t>Anti-virus, -spyware, and other -malware programs shall be installed and updated.</t>
-  </si>
-  <si>
     <t>•	Malware includes viruses, spyware, and ransomware and should be countered by installing, using, and regularly updating anti-virus and anti-spyware software on every device used in company’s business (including computers, smart phones, tablets, and servers).
 •	Anti-virus and anti-spyware software should automatically check for updates in “real-time” or at least daily followed by system scanning as appropriate.
 •	It should be considered to provide the same malicious code protection mechanisms for home computers (e.g. teleworking) or personal devices that are used for professional work (BYOD).</t>
@@ -2625,9 +2560,6 @@
   </si>
   <si>
     <t>IMPORTANT_RS.AN-5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The organization shall implement vulnerability management processes and procedures that include processing, analyzing and remedying vulnerabilities from internal and external sources. </t>
   </si>
   <si>
     <t>Internal and external sources could be e.g. internal testing, security bulletins, or security researchers.</t>
@@ -2971,15 +2903,6 @@
     <t>Security policies (that address purpose, scope, roles, responsibilities, management commitment, and coordination among organizational entities), processes, and procedures are maintained and used to manage protection of information systems and assets.</t>
   </si>
   <si>
-    <t>Nobody shall have administrator privileges for daily tasks.</t>
-  </si>
-  <si>
-    <t>Employee access to data and information shall be limited to the systems and specific information they need to do their jobs (the principle of Least Privilege).</t>
-  </si>
-  <si>
-    <t>Identities and credentials for authorized devices and users shall be managed.</t>
-  </si>
-  <si>
     <t>Centre For Cybersecurity Belgium - CyberFundamentals Framework
 https://ccb.belgium.be</t>
   </si>
@@ -3010,6 +2933,126 @@
   </si>
   <si>
     <t>framework_max_score</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>basic - key measure</t>
+  </si>
+  <si>
+    <t>IK</t>
+  </si>
+  <si>
+    <t>EK</t>
+  </si>
+  <si>
+    <t>important - key measure</t>
+  </si>
+  <si>
+    <t>essential - key measure</t>
+  </si>
+  <si>
+    <t>I,E,IK,EK</t>
+  </si>
+  <si>
+    <t>[KEY MEASURE] Information security and cybersecurity roles, responsibilities and authorities within the organization shall be documented, reviewed, authorized, and updated and alignment with organization-internal roles and external partners.</t>
+  </si>
+  <si>
+    <t>B,I,E,BK,IK,EK</t>
+  </si>
+  <si>
+    <t>[KEY MEASURE] Identities and credentials for authorized devices and users shall be managed.</t>
+  </si>
+  <si>
+    <t>E,EK</t>
+  </si>
+  <si>
+    <t>[KEY MEASURE] Contractual information security and cybersecurity’ requirements for suppliers and third-party partners shall be implemented to ensure a verifiable flaw remediation process, and to ensure the correction of flaws identified during ‘information security and cybersecurity’ testing and evaluation.</t>
+  </si>
+  <si>
+    <t>[KEY MEASURE] The organization shall establish contractual requirements permitting the organization to review the ‘information security and cybersecurity’ programs implemented by suppliers and third-party partners.</t>
+  </si>
+  <si>
+    <t>[KEY MEASURE] The organization's networks when accessed remotely shall be secured, including through multi-factor authentication (MFA).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[KEY MEASURE] Usage restrictions, connection requirements, implementation guidance, and authorizations for remote access to the organization’s critical systems environment shall be identified, documented and implemented. </t>
+  </si>
+  <si>
+    <t>[KEY MEASURE] Access permissions for users to the organization’s systems shall be defined and managed.</t>
+  </si>
+  <si>
+    <t>[KEY MEASURE] It shall be identified who should have access to the organization's business's critical information and technology and the means to get access.</t>
+  </si>
+  <si>
+    <t>[KEY MEASURE] Employee access to data and information shall be limited to the systems and specific information they need to do their jobs (the principle of Least Privilege).</t>
+  </si>
+  <si>
+    <t>[KEY MEASURE] Nobody shall have administrator privileges for daily tasks.</t>
+  </si>
+  <si>
+    <t>[KEY MEASURE] Firewalls shall be installed and activated on all the organization's networks.</t>
+  </si>
+  <si>
+    <t>[KEY MEASURE] Where appropriate, network integrity of the organization's critical systems shall be protected by incorporating network segmentation and segregation.</t>
+  </si>
+  <si>
+    <t>[KEY MEASURE] Where appropriate, network integrity of the organization's critical systems shall be protected by
+(1) Identifying, documenting, and controlling connections between system components.
+(2) Limiting external connections to the organization's critical systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[KEY MEASURE] The organization shall monitor and control connections and communications at the external boundary and at key internal boundaries within the organization's critical systems by implementing boundary protection devices where appropriate. </t>
+  </si>
+  <si>
+    <t>[KEY MEASURE] The organization shall take appropriate actions resulting in the monitoring of its critical systems at external borders and critical internal points when unauthorized access and activities, including data leakage, is detected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[KEY MEASURE] The organization shall develop, document, and maintain a baseline configuration for the its business critical systems. </t>
+  </si>
+  <si>
+    <t>[KEY MEASURE] Backups for organization's business critical data shall be conducted and stored on a system different from the device on which the original data resides</t>
+  </si>
+  <si>
+    <t>[KEY MEASURE] Patches and security updates for Operating Systems and critical system components shall be installed.</t>
+  </si>
+  <si>
+    <t>[KEY MEASURE] The organization shall prevent the unauthorized removal of maintenance equipment containing organization's critical system information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[KEY MEASURE] Maintenance tools and portable storage devices shall be inspected when  brought into the facility and shall be protected by anti-malware solutions so that they are scanned for malicious code before they are used on organization's systems. </t>
+  </si>
+  <si>
+    <t>[KEY MEASURE] The organization shall verify security controls following hardware and software maintenance or repairs/patching and take action as appropriate.</t>
+  </si>
+  <si>
+    <t>[KEY MEASURE]  Logs shall be maintained, documented, and reviewed.</t>
+  </si>
+  <si>
+    <t>[KEY MEASURE] Portable storage devices containing system data shall be controlled and protected while in transit and in storage.</t>
+  </si>
+  <si>
+    <t>[KEY MEASURE] The organization shall ensure that a baseline of network operations and expected data flows for its critical systems is developed, documented and maintained to track events.</t>
+  </si>
+  <si>
+    <t>[KEY MEASURE] The activity logging functionality of protection / detection hardware or software 
+(e.g. firewalls, anti-virus) shall be enabled, backed-up and reviewed.</t>
+  </si>
+  <si>
+    <t>[KEY MEASURE] The organization shall monitor and identify unauthorized use of its business critical systems through the detection of unauthorized local connections, network connections and remote connections.</t>
+  </si>
+  <si>
+    <t>[KEY MEASURE] Anti-virus, -spyware, and other -malware programs shall be installed and updated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[KEY MEASURE] The organization shall implement vulnerability management processes and procedures that include processing, analyzing and remedying vulnerabilities from internal and external sources. </t>
+  </si>
+  <si>
+    <t>I,E,EK</t>
+  </si>
+  <si>
+    <t>[KEY MEASURE for ESSENTIAL] The organization shall perform a documented risk assessment on organization's critical system transactions and authenticate users, devices, and other assets (e.g., single-factor, multi-factor) commensurate with the risk of the transaction (e.g., individuals’ security and privacy risks and other organizational risks).</t>
   </si>
 </sst>
 </file>
@@ -3044,12 +3087,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -3079,7 +3128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3100,6 +3149,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3405,7 +3455,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="231" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3417,111 +3467,111 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>865</v>
+        <v>839</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>866</v>
+        <v>840</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>867</v>
+        <v>841</v>
       </c>
       <c r="B2" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>868</v>
+        <v>842</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>869</v>
+        <v>843</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>870</v>
+        <v>844</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>871</v>
+        <v>845</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>872</v>
+        <v>846</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>873</v>
+        <v>847</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>874</v>
+        <v>848</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>915</v>
+        <v>886</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>876</v>
+        <v>850</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>877</v>
+        <v>851</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>878</v>
+        <v>852</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>879</v>
+        <v>853</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>880</v>
+        <v>854</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>881</v>
+        <v>855</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>882</v>
+        <v>856</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>883</v>
+        <v>857</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>884</v>
+        <v>858</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>871</v>
+        <v>845</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>885</v>
+        <v>859</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>873</v>
+        <v>847</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>886</v>
+        <v>860</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>875</v>
+        <v>849</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>921</v>
+        <v>892</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -3529,7 +3579,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>922</v>
+        <v>893</v>
       </c>
       <c r="B15" s="2">
         <v>5</v>
@@ -3537,35 +3587,35 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>887</v>
+        <v>861</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>888</v>
+        <v>862</v>
       </c>
       <c r="C16" t="s">
-        <v>889</v>
+        <v>863</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>887</v>
+        <v>861</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C17" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>887</v>
+        <v>861</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>902</v>
+        <v>876</v>
       </c>
       <c r="C18" t="s">
-        <v>902</v>
+        <v>876</v>
       </c>
     </row>
   </sheetData>
@@ -3578,8 +3628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G347"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="187" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView topLeftCell="A121" zoomScale="187" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3601,16 +3651,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>902</v>
+        <v>876</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>864</v>
+        <v>838</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>894</v>
+        <v>868</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>3</v>
@@ -3660,7 +3710,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>909</v>
+        <v>883</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -3680,7 +3730,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -3700,7 +3750,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -3720,7 +3770,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -3751,7 +3801,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>909</v>
+        <v>883</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -3771,7 +3821,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
@@ -3791,7 +3841,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
@@ -3811,7 +3861,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D13" t="s">
         <v>35</v>
@@ -3831,7 +3881,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
@@ -3862,7 +3912,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>909</v>
+        <v>883</v>
       </c>
       <c r="D16" t="s">
         <v>43</v>
@@ -3882,7 +3932,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D17" t="s">
         <v>46</v>
@@ -3902,7 +3952,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D18" t="s">
         <v>49</v>
@@ -3933,7 +3983,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D20" t="s">
         <v>54</v>
@@ -3953,7 +4003,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D21" t="s">
         <v>57</v>
@@ -3984,7 +4034,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>909</v>
+        <v>883</v>
       </c>
       <c r="D23" t="s">
         <v>62</v>
@@ -4015,16 +4065,16 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="D25" t="s">
         <v>67</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4035,16 +4085,16 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -4052,13 +4102,13 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" t="s">
         <v>73</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4066,10 +4116,10 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -4080,16 +4130,16 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4100,13 +4150,13 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>34</v>
@@ -4117,10 +4167,10 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -4131,16 +4181,16 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D32" t="s">
-        <v>890</v>
+        <v>864</v>
       </c>
       <c r="F32" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4148,10 +4198,10 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4162,16 +4212,16 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D34" t="s">
-        <v>891</v>
+        <v>865</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4179,10 +4229,10 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -4193,16 +4243,16 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D36" t="s">
-        <v>892</v>
+        <v>866</v>
       </c>
       <c r="F36" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4210,10 +4260,10 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -4224,16 +4274,16 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="G38" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -4244,16 +4294,16 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D39" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -4264,16 +4314,16 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D40" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="G40" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -4281,13 +4331,13 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" t="s">
         <v>106</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4295,10 +4345,10 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="96" x14ac:dyDescent="0.2">
@@ -4309,16 +4359,16 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>909</v>
+        <v>883</v>
       </c>
       <c r="D43" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="G43" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="112" x14ac:dyDescent="0.2">
@@ -4329,16 +4379,16 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D44" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="G44" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4346,10 +4396,10 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4360,16 +4410,16 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>909</v>
+        <v>883</v>
       </c>
       <c r="D46" t="s">
+        <v>118</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="G46" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -4380,16 +4430,16 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D47" t="s">
+        <v>121</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="G47" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4397,10 +4447,10 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
+        <v>124</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -4411,16 +4461,16 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>909</v>
+        <v>883</v>
       </c>
       <c r="D49" t="s">
+        <v>126</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4431,16 +4481,16 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D50" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="G50" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -4448,13 +4498,13 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" t="s">
         <v>133</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4462,10 +4512,10 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
+        <v>135</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -4476,16 +4526,16 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>909</v>
+        <v>883</v>
       </c>
       <c r="D53" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="G53" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -4496,16 +4546,16 @@
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D54" t="s">
+        <v>140</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -4516,16 +4566,16 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D55" t="s">
+        <v>143</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="G55" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4533,10 +4583,10 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
+        <v>146</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -4547,16 +4597,16 @@
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D57" t="s">
+        <v>148</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="G57" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4567,13 +4617,13 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D58" t="s">
+        <v>151</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>34</v>
@@ -4584,10 +4634,10 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
+        <v>153</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -4598,16 +4648,16 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>909</v>
+        <v>883</v>
       </c>
       <c r="D60" t="s">
+        <v>155</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="G60" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -4618,16 +4668,16 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D61" t="s">
+        <v>158</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="G61" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4638,13 +4688,13 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D62" t="s">
+        <v>161</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>34</v>
@@ -4655,10 +4705,10 @@
         <v>3</v>
       </c>
       <c r="D63" t="s">
+        <v>163</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -4669,16 +4719,16 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D64" t="s">
+        <v>165</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="G64" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4686,13 +4736,13 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
+        <v>168</v>
+      </c>
+      <c r="E65" t="s">
         <v>169</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4700,10 +4750,10 @@
         <v>3</v>
       </c>
       <c r="D66" t="s">
+        <v>171</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -4714,16 +4764,16 @@
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D67" t="s">
+        <v>173</v>
+      </c>
+      <c r="F67" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="G67" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4731,10 +4781,10 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
+        <v>176</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -4745,16 +4795,16 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D69" t="s">
+        <v>178</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="G69" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4762,10 +4812,10 @@
         <v>3</v>
       </c>
       <c r="D70" t="s">
+        <v>181</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4776,13 +4826,13 @@
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D71" t="s">
+        <v>183</v>
+      </c>
+      <c r="F71" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>34</v>
@@ -4793,13 +4843,13 @@
         <v>2</v>
       </c>
       <c r="D72" t="s">
+        <v>185</v>
+      </c>
+      <c r="E72" t="s">
         <v>186</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4807,10 +4857,10 @@
         <v>3</v>
       </c>
       <c r="D73" t="s">
+        <v>188</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -4821,13 +4871,13 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D74" t="s">
+        <v>190</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>34</v>
@@ -4838,10 +4888,10 @@
         <v>3</v>
       </c>
       <c r="D75" t="s">
+        <v>192</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -4852,16 +4902,16 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D76" t="s">
+        <v>194</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="G76" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -4872,16 +4922,16 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D77" t="s">
+        <v>197</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="G77" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -4889,10 +4939,10 @@
         <v>3</v>
       </c>
       <c r="D78" t="s">
+        <v>200</v>
+      </c>
+      <c r="F78" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -4903,16 +4953,16 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D79" t="s">
+        <v>202</v>
+      </c>
+      <c r="F79" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="G79" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -4923,16 +4973,16 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
+        <v>904</v>
+      </c>
+      <c r="D80" t="s">
+        <v>205</v>
+      </c>
+      <c r="F80" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="D80" t="s">
+      <c r="G80" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -4943,13 +4993,13 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D81" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>210</v>
+        <v>906</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>34</v>
@@ -4960,10 +5010,10 @@
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -4974,16 +5024,16 @@
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D83" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -4994,16 +5044,16 @@
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D84" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5011,10 +5061,10 @@
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -5025,16 +5075,16 @@
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D86" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -5045,13 +5095,13 @@
         <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D87" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>34</v>
@@ -5062,10 +5112,10 @@
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E88" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -5073,13 +5123,13 @@
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E89" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5087,10 +5137,10 @@
         <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="176" x14ac:dyDescent="0.2">
@@ -5101,16 +5151,16 @@
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="D91" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -5121,16 +5171,16 @@
         <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D92" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -5141,16 +5191,16 @@
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D93" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -5161,16 +5211,16 @@
         <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D94" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -5181,16 +5231,16 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D95" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5198,10 +5248,10 @@
         <v>3</v>
       </c>
       <c r="D96" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="80" x14ac:dyDescent="0.2">
@@ -5212,16 +5262,16 @@
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>909</v>
+        <v>883</v>
       </c>
       <c r="D97" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="112" x14ac:dyDescent="0.2">
@@ -5232,16 +5282,16 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D98" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5252,16 +5302,16 @@
         <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D99" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -5272,16 +5322,16 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D100" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5289,10 +5339,10 @@
         <v>3</v>
       </c>
       <c r="D101" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="112" x14ac:dyDescent="0.2">
@@ -5303,16 +5353,16 @@
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>909</v>
+        <v>883</v>
       </c>
       <c r="D102" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5323,16 +5373,16 @@
         <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="D103" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>266</v>
+        <v>907</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="80" x14ac:dyDescent="0.2">
@@ -5343,16 +5393,16 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="D104" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>269</v>
+        <v>908</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5363,16 +5413,16 @@
         <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D105" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5383,16 +5433,16 @@
         <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D106" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5400,10 +5450,10 @@
         <v>3</v>
       </c>
       <c r="D107" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="128" x14ac:dyDescent="0.2">
@@ -5414,16 +5464,16 @@
         <v>4</v>
       </c>
       <c r="C108" t="s">
+        <v>902</v>
+      </c>
+      <c r="D108" t="s">
+        <v>274</v>
+      </c>
+      <c r="F108" s="4" t="s">
         <v>909</v>
       </c>
-      <c r="D108" t="s">
-        <v>279</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="G108" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5434,16 +5484,16 @@
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="D109" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>283</v>
+        <v>910</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="80" x14ac:dyDescent="0.2">
@@ -5454,16 +5504,16 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="D110" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="80" x14ac:dyDescent="0.2">
@@ -5474,16 +5524,16 @@
         <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="D111" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>912</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -5494,16 +5544,16 @@
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D112" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="80" x14ac:dyDescent="0.2">
@@ -5514,16 +5564,16 @@
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D113" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5534,13 +5584,13 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D114" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>34</v>
@@ -5554,16 +5604,16 @@
         <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D115" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5574,13 +5624,13 @@
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D116" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>34</v>
@@ -5591,10 +5641,10 @@
         <v>3</v>
       </c>
       <c r="D117" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="144" x14ac:dyDescent="0.2">
@@ -5605,16 +5655,16 @@
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="D118" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>305</v>
+        <v>913</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -5625,16 +5675,16 @@
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="D119" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>308</v>
+        <v>914</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -5645,16 +5695,16 @@
         <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="D120" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>311</v>
+        <v>915</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="128" x14ac:dyDescent="0.2">
@@ -5665,16 +5715,16 @@
         <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="D121" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>314</v>
+        <v>916</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -5685,13 +5735,13 @@
         <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D122" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>34</v>
@@ -5705,13 +5755,13 @@
         <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D123" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>34</v>
@@ -5722,10 +5772,10 @@
         <v>3</v>
       </c>
       <c r="D124" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5736,13 +5786,13 @@
         <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D125" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>34</v>
@@ -5756,13 +5806,13 @@
         <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D126" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>34</v>
@@ -5773,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="D127" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -5787,16 +5837,16 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>910</v>
-      </c>
-      <c r="D128" t="s">
-        <v>328</v>
+        <v>931</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>317</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>329</v>
+        <v>932</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -5804,13 +5854,13 @@
         <v>2</v>
       </c>
       <c r="D129" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="E129" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5818,10 +5868,10 @@
         <v>3</v>
       </c>
       <c r="D130" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -5832,16 +5882,16 @@
         <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>909</v>
+        <v>883</v>
       </c>
       <c r="D131" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="160" x14ac:dyDescent="0.2">
@@ -5852,16 +5902,16 @@
         <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D132" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5872,13 +5922,13 @@
         <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D133" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>34</v>
@@ -5889,10 +5939,10 @@
         <v>3</v>
       </c>
       <c r="D134" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -5903,13 +5953,13 @@
         <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D135" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>34</v>
@@ -5920,10 +5970,10 @@
         <v>3</v>
       </c>
       <c r="D136" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5934,16 +5984,16 @@
         <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D137" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -5954,16 +6004,16 @@
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D138" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5974,16 +6024,16 @@
         <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D139" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5994,16 +6044,16 @@
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D140" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6011,10 +6061,10 @@
         <v>3</v>
       </c>
       <c r="D141" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -6025,16 +6075,16 @@
         <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D142" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6042,10 +6092,10 @@
         <v>3</v>
       </c>
       <c r="D143" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -6056,13 +6106,13 @@
         <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D144" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>34</v>
@@ -6073,13 +6123,13 @@
         <v>2</v>
       </c>
       <c r="D145" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="E145" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6087,10 +6137,10 @@
         <v>3</v>
       </c>
       <c r="D146" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="112" x14ac:dyDescent="0.2">
@@ -6101,16 +6151,16 @@
         <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D147" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6118,10 +6168,10 @@
         <v>3</v>
       </c>
       <c r="D148" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -6132,16 +6182,16 @@
         <v>4</v>
       </c>
       <c r="C149" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D149" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6149,10 +6199,10 @@
         <v>3</v>
       </c>
       <c r="D150" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -6163,16 +6213,16 @@
         <v>4</v>
       </c>
       <c r="C151" t="s">
-        <v>909</v>
+        <v>883</v>
       </c>
       <c r="D151" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -6183,16 +6233,16 @@
         <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D152" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -6203,16 +6253,16 @@
         <v>4</v>
       </c>
       <c r="C153" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D153" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6223,16 +6273,16 @@
         <v>4</v>
       </c>
       <c r="C154" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D154" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6240,10 +6290,10 @@
         <v>3</v>
       </c>
       <c r="D155" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6254,13 +6304,13 @@
         <v>4</v>
       </c>
       <c r="C156" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D156" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>34</v>
@@ -6274,16 +6324,16 @@
         <v>4</v>
       </c>
       <c r="C157" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D157" t="s">
-        <v>893</v>
+        <v>867</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6294,13 +6344,13 @@
         <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D158" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="G158" s="4" t="s">
         <v>34</v>
@@ -6311,10 +6361,10 @@
         <v>3</v>
       </c>
       <c r="D159" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -6325,16 +6375,16 @@
         <v>4</v>
       </c>
       <c r="C160" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="D160" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>408</v>
+        <v>917</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6342,10 +6392,10 @@
         <v>3</v>
       </c>
       <c r="D161" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -6356,16 +6406,16 @@
         <v>4</v>
       </c>
       <c r="C162" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D162" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6376,13 +6426,13 @@
         <v>4</v>
       </c>
       <c r="C163" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D163" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>34</v>
@@ -6396,13 +6446,13 @@
         <v>4</v>
       </c>
       <c r="C164" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D164" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="G164" s="4" t="s">
         <v>34</v>
@@ -6413,10 +6463,10 @@
         <v>3</v>
       </c>
       <c r="D165" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="96" x14ac:dyDescent="0.2">
@@ -6427,16 +6477,16 @@
         <v>4</v>
       </c>
       <c r="C166" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D166" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6444,10 +6494,10 @@
         <v>3</v>
       </c>
       <c r="D167" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -6458,16 +6508,16 @@
         <v>4</v>
       </c>
       <c r="C168" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D168" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6478,13 +6528,13 @@
         <v>4</v>
       </c>
       <c r="C169" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D169" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="G169" s="4" t="s">
         <v>34</v>
@@ -6495,13 +6545,13 @@
         <v>2</v>
       </c>
       <c r="D170" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="E170" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>911</v>
+        <v>885</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -6509,10 +6559,10 @@
         <v>3</v>
       </c>
       <c r="D171" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -6523,16 +6573,16 @@
         <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="D172" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>435</v>
+        <v>918</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -6543,16 +6593,16 @@
         <v>4</v>
       </c>
       <c r="C173" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D173" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6560,10 +6610,10 @@
         <v>3</v>
       </c>
       <c r="D174" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -6574,16 +6624,16 @@
         <v>4</v>
       </c>
       <c r="C175" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D175" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="80" x14ac:dyDescent="0.2">
@@ -6594,16 +6644,16 @@
         <v>4</v>
       </c>
       <c r="C176" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D176" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6611,10 +6661,10 @@
         <v>3</v>
       </c>
       <c r="D177" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6625,13 +6675,13 @@
         <v>4</v>
       </c>
       <c r="C178" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D178" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="G178" s="4" t="s">
         <v>34</v>
@@ -6645,13 +6695,13 @@
         <v>4</v>
       </c>
       <c r="C179" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D179" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="G179" s="4" t="s">
         <v>34</v>
@@ -6662,10 +6712,10 @@
         <v>3</v>
       </c>
       <c r="D180" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="96" x14ac:dyDescent="0.2">
@@ -6676,16 +6726,16 @@
         <v>4</v>
       </c>
       <c r="C181" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="D181" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>457</v>
+        <v>919</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6696,16 +6746,16 @@
         <v>4</v>
       </c>
       <c r="C182" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D182" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6716,16 +6766,16 @@
         <v>4</v>
       </c>
       <c r="C183" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D183" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -6736,16 +6786,16 @@
         <v>4</v>
       </c>
       <c r="C184" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D184" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6756,16 +6806,16 @@
         <v>4</v>
       </c>
       <c r="C185" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D185" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6773,10 +6823,10 @@
         <v>3</v>
       </c>
       <c r="D186" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -6787,16 +6837,16 @@
         <v>4</v>
       </c>
       <c r="C187" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D187" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6807,13 +6857,13 @@
         <v>4</v>
       </c>
       <c r="C188" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D188" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="G188" s="4" t="s">
         <v>34</v>
@@ -6824,10 +6874,10 @@
         <v>3</v>
       </c>
       <c r="D189" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="80" x14ac:dyDescent="0.2">
@@ -6838,16 +6888,16 @@
         <v>4</v>
       </c>
       <c r="C190" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D190" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -6858,16 +6908,16 @@
         <v>4</v>
       </c>
       <c r="C191" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D191" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6875,10 +6925,10 @@
         <v>3</v>
       </c>
       <c r="D192" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -6889,13 +6939,13 @@
         <v>4</v>
       </c>
       <c r="C193" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D193" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="G193" s="4" t="s">
         <v>34</v>
@@ -6909,16 +6959,16 @@
         <v>4</v>
       </c>
       <c r="C194" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D194" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6929,13 +6979,13 @@
         <v>4</v>
       </c>
       <c r="C195" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D195" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="G195" s="4" t="s">
         <v>34</v>
@@ -6946,10 +6996,10 @@
         <v>3</v>
       </c>
       <c r="D196" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6960,13 +7010,13 @@
         <v>4</v>
       </c>
       <c r="C197" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D197" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="G197" s="4" t="s">
         <v>34</v>
@@ -6980,13 +7030,13 @@
         <v>4</v>
       </c>
       <c r="C198" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D198" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="G198" s="4" t="s">
         <v>34</v>
@@ -7000,13 +7050,13 @@
         <v>4</v>
       </c>
       <c r="C199" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D199" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="G199" s="4" t="s">
         <v>34</v>
@@ -7017,10 +7067,10 @@
         <v>3</v>
       </c>
       <c r="D200" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -7031,16 +7081,16 @@
         <v>4</v>
       </c>
       <c r="C201" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D201" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -7051,16 +7101,16 @@
         <v>4</v>
       </c>
       <c r="C202" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D202" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -7068,10 +7118,10 @@
         <v>3</v>
       </c>
       <c r="D203" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -7082,16 +7132,16 @@
         <v>4</v>
       </c>
       <c r="C204" t="s">
-        <v>909</v>
+        <v>883</v>
       </c>
       <c r="D204" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -7102,16 +7152,16 @@
         <v>4</v>
       </c>
       <c r="C205" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D205" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -7119,10 +7169,10 @@
         <v>3</v>
       </c>
       <c r="D206" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -7133,16 +7183,16 @@
         <v>4</v>
       </c>
       <c r="C207" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D207" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -7150,13 +7200,13 @@
         <v>2</v>
       </c>
       <c r="D208" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="E208" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -7164,10 +7214,10 @@
         <v>3</v>
       </c>
       <c r="D209" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="96" x14ac:dyDescent="0.2">
@@ -7178,16 +7228,16 @@
         <v>4</v>
       </c>
       <c r="C210" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="D210" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>530</v>
+        <v>920</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -7198,16 +7248,16 @@
         <v>4</v>
       </c>
       <c r="C211" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D211" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -7218,16 +7268,16 @@
         <v>4</v>
       </c>
       <c r="C212" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D212" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -7238,16 +7288,16 @@
         <v>4</v>
       </c>
       <c r="C213" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D213" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -7258,16 +7308,16 @@
         <v>4</v>
       </c>
       <c r="C214" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D214" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>542</v>
+        <v>921</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -7278,13 +7328,13 @@
         <v>4</v>
       </c>
       <c r="C215" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D215" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>545</v>
+        <v>922</v>
       </c>
       <c r="G215" s="4" t="s">
         <v>34</v>
@@ -7298,13 +7348,13 @@
         <v>4</v>
       </c>
       <c r="C216" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D216" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>547</v>
+        <v>923</v>
       </c>
       <c r="G216" s="4" t="s">
         <v>34</v>
@@ -7315,10 +7365,10 @@
         <v>3</v>
       </c>
       <c r="D217" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -7329,16 +7379,16 @@
         <v>4</v>
       </c>
       <c r="C218" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D218" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -7349,16 +7399,16 @@
         <v>4</v>
       </c>
       <c r="C219" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D219" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -7369,13 +7419,13 @@
         <v>4</v>
       </c>
       <c r="C220" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D220" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="G220" s="4" t="s">
         <v>34</v>
@@ -7386,13 +7436,13 @@
         <v>2</v>
       </c>
       <c r="D221" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="E221" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -7400,10 +7450,10 @@
         <v>3</v>
       </c>
       <c r="D222" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -7414,16 +7464,16 @@
         <v>4</v>
       </c>
       <c r="C223" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="D223" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>562</v>
+        <v>924</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -7434,16 +7484,16 @@
         <v>4</v>
       </c>
       <c r="C224" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D224" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -7454,16 +7504,16 @@
         <v>4</v>
       </c>
       <c r="C225" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D225" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -7474,13 +7524,13 @@
         <v>4</v>
       </c>
       <c r="C226" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D226" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="G226" s="4" t="s">
         <v>34</v>
@@ -7491,10 +7541,10 @@
         <v>3</v>
       </c>
       <c r="D227" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -7505,13 +7555,13 @@
         <v>4</v>
       </c>
       <c r="C228" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D228" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="G228" s="4" t="s">
         <v>34</v>
@@ -7525,13 +7575,13 @@
         <v>4</v>
       </c>
       <c r="C229" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D229" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="G229" s="4" t="s">
         <v>34</v>
@@ -7545,16 +7595,16 @@
         <v>4</v>
       </c>
       <c r="C230" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D230" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>579</v>
+        <v>925</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -7562,10 +7612,10 @@
         <v>3</v>
       </c>
       <c r="D231" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>582</v>
+        <v>561</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -7576,16 +7626,16 @@
         <v>4</v>
       </c>
       <c r="C232" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D232" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -7596,13 +7646,13 @@
         <v>4</v>
       </c>
       <c r="C233" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D233" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>587</v>
+        <v>566</v>
       </c>
       <c r="G233" s="4" t="s">
         <v>34</v>
@@ -7616,13 +7666,13 @@
         <v>4</v>
       </c>
       <c r="C234" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D234" t="s">
-        <v>588</v>
+        <v>567</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="G234" s="4" t="s">
         <v>34</v>
@@ -7633,10 +7683,10 @@
         <v>3</v>
       </c>
       <c r="D235" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -7647,16 +7697,16 @@
         <v>4</v>
       </c>
       <c r="C236" t="s">
-        <v>909</v>
+        <v>883</v>
       </c>
       <c r="D236" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="96" x14ac:dyDescent="0.2">
@@ -7667,16 +7717,16 @@
         <v>4</v>
       </c>
       <c r="C237" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D237" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -7687,13 +7737,13 @@
         <v>4</v>
       </c>
       <c r="C238" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D238" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="G238" s="4" t="s">
         <v>34</v>
@@ -7704,10 +7754,10 @@
         <v>1</v>
       </c>
       <c r="D239" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="E239" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -7715,13 +7765,13 @@
         <v>2</v>
       </c>
       <c r="D240" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="E240" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -7729,10 +7779,10 @@
         <v>3</v>
       </c>
       <c r="D241" t="s">
-        <v>605</v>
+        <v>584</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>606</v>
+        <v>585</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -7743,16 +7793,16 @@
         <v>4</v>
       </c>
       <c r="C242" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D242" t="s">
-        <v>607</v>
+        <v>586</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>608</v>
+        <v>926</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>609</v>
+        <v>587</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -7760,10 +7810,10 @@
         <v>3</v>
       </c>
       <c r="D243" t="s">
-        <v>610</v>
+        <v>588</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>611</v>
+        <v>589</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -7774,13 +7824,13 @@
         <v>4</v>
       </c>
       <c r="C244" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D244" t="s">
-        <v>612</v>
+        <v>590</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>613</v>
+        <v>591</v>
       </c>
       <c r="G244" s="4" t="s">
         <v>34</v>
@@ -7794,16 +7844,16 @@
         <v>4</v>
       </c>
       <c r="C245" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D245" t="s">
-        <v>614</v>
+        <v>592</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>615</v>
+        <v>593</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>616</v>
+        <v>594</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -7811,10 +7861,10 @@
         <v>3</v>
       </c>
       <c r="D246" t="s">
-        <v>617</v>
+        <v>595</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>618</v>
+        <v>596</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -7825,16 +7875,16 @@
         <v>4</v>
       </c>
       <c r="C247" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="D247" t="s">
-        <v>619</v>
+        <v>597</v>
       </c>
       <c r="F247" s="4" t="s">
-        <v>620</v>
+        <v>927</v>
       </c>
       <c r="G247" s="4" t="s">
-        <v>621</v>
+        <v>598</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -7845,13 +7895,13 @@
         <v>4</v>
       </c>
       <c r="C248" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D248" t="s">
-        <v>622</v>
+        <v>599</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>623</v>
+        <v>600</v>
       </c>
       <c r="G248" s="4" t="s">
         <v>34</v>
@@ -7865,13 +7915,13 @@
         <v>4</v>
       </c>
       <c r="C249" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D249" t="s">
-        <v>624</v>
+        <v>601</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>625</v>
+        <v>602</v>
       </c>
       <c r="G249" s="4" t="s">
         <v>34</v>
@@ -7882,10 +7932,10 @@
         <v>3</v>
       </c>
       <c r="D250" t="s">
-        <v>626</v>
+        <v>603</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>627</v>
+        <v>604</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -7896,13 +7946,13 @@
         <v>4</v>
       </c>
       <c r="C251" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D251" t="s">
-        <v>628</v>
+        <v>605</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>629</v>
+        <v>606</v>
       </c>
       <c r="G251" s="4" t="s">
         <v>34</v>
@@ -7913,10 +7963,10 @@
         <v>3</v>
       </c>
       <c r="D252" t="s">
-        <v>630</v>
+        <v>607</v>
       </c>
       <c r="F252" s="4" t="s">
-        <v>631</v>
+        <v>608</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -7927,13 +7977,13 @@
         <v>4</v>
       </c>
       <c r="C253" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D253" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>633</v>
+        <v>610</v>
       </c>
       <c r="G253" s="4" t="s">
         <v>34</v>
@@ -7947,13 +7997,13 @@
         <v>4</v>
       </c>
       <c r="C254" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D254" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="F254" s="4" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="G254" s="4" t="s">
         <v>34</v>
@@ -7964,13 +8014,13 @@
         <v>2</v>
       </c>
       <c r="D255" t="s">
-        <v>636</v>
+        <v>613</v>
       </c>
       <c r="E255" t="s">
-        <v>637</v>
+        <v>614</v>
       </c>
       <c r="F255" s="4" t="s">
-        <v>638</v>
+        <v>615</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -7978,10 +8028,10 @@
         <v>3</v>
       </c>
       <c r="D256" t="s">
-        <v>639</v>
+        <v>616</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>640</v>
+        <v>617</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -7992,16 +8042,16 @@
         <v>4</v>
       </c>
       <c r="C257" t="s">
-        <v>909</v>
+        <v>883</v>
       </c>
       <c r="D257" t="s">
-        <v>641</v>
+        <v>618</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>642</v>
+        <v>619</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>643</v>
+        <v>620</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -8012,16 +8062,16 @@
         <v>4</v>
       </c>
       <c r="C258" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="D258" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>645</v>
+        <v>928</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>646</v>
+        <v>622</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="96" x14ac:dyDescent="0.2">
@@ -8032,16 +8082,16 @@
         <v>4</v>
       </c>
       <c r="C259" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D259" t="s">
-        <v>647</v>
+        <v>623</v>
       </c>
       <c r="F259" s="4" t="s">
-        <v>648</v>
+        <v>624</v>
       </c>
       <c r="G259" s="4" t="s">
-        <v>649</v>
+        <v>625</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -8049,10 +8099,10 @@
         <v>3</v>
       </c>
       <c r="D260" t="s">
-        <v>650</v>
+        <v>626</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -8063,13 +8113,13 @@
         <v>4</v>
       </c>
       <c r="C261" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D261" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="F261" s="4" t="s">
-        <v>653</v>
+        <v>629</v>
       </c>
       <c r="G261" s="4" t="s">
         <v>34</v>
@@ -8083,16 +8133,16 @@
         <v>4</v>
       </c>
       <c r="C262" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D262" t="s">
-        <v>654</v>
+        <v>630</v>
       </c>
       <c r="F262" s="4" t="s">
-        <v>655</v>
+        <v>631</v>
       </c>
       <c r="G262" s="4" t="s">
-        <v>656</v>
+        <v>632</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -8100,10 +8150,10 @@
         <v>3</v>
       </c>
       <c r="D263" t="s">
-        <v>657</v>
+        <v>633</v>
       </c>
       <c r="F263" s="4" t="s">
-        <v>658</v>
+        <v>634</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -8114,16 +8164,16 @@
         <v>4</v>
       </c>
       <c r="C264" t="s">
-        <v>909</v>
+        <v>883</v>
       </c>
       <c r="D264" t="s">
-        <v>659</v>
+        <v>635</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>660</v>
+        <v>636</v>
       </c>
       <c r="G264" s="4" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -8134,16 +8184,16 @@
         <v>4</v>
       </c>
       <c r="C265" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D265" t="s">
-        <v>662</v>
+        <v>638</v>
       </c>
       <c r="F265" s="4" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
       <c r="G265" s="4" t="s">
-        <v>664</v>
+        <v>640</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -8154,16 +8204,16 @@
         <v>4</v>
       </c>
       <c r="C266" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D266" t="s">
-        <v>665</v>
+        <v>641</v>
       </c>
       <c r="F266" s="4" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="G266" s="4" t="s">
-        <v>667</v>
+        <v>643</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -8171,10 +8221,10 @@
         <v>3</v>
       </c>
       <c r="D267" t="s">
-        <v>668</v>
+        <v>644</v>
       </c>
       <c r="F267" s="4" t="s">
-        <v>669</v>
+        <v>645</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -8185,16 +8235,16 @@
         <v>4</v>
       </c>
       <c r="C268" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="D268" t="s">
-        <v>670</v>
+        <v>646</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>671</v>
+        <v>929</v>
       </c>
       <c r="G268" s="4" t="s">
-        <v>672</v>
+        <v>647</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -8205,13 +8255,13 @@
         <v>4</v>
       </c>
       <c r="C269" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D269" t="s">
-        <v>673</v>
+        <v>648</v>
       </c>
       <c r="F269" s="4" t="s">
-        <v>674</v>
+        <v>649</v>
       </c>
       <c r="G269" s="4" t="s">
         <v>34</v>
@@ -8222,10 +8272,10 @@
         <v>3</v>
       </c>
       <c r="D270" t="s">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="F270" s="4" t="s">
-        <v>676</v>
+        <v>651</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -8236,16 +8286,16 @@
         <v>4</v>
       </c>
       <c r="C271" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D271" t="s">
-        <v>677</v>
+        <v>652</v>
       </c>
       <c r="F271" s="4" t="s">
-        <v>678</v>
+        <v>653</v>
       </c>
       <c r="G271" s="4" t="s">
-        <v>679</v>
+        <v>654</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -8253,10 +8303,10 @@
         <v>3</v>
       </c>
       <c r="D272" t="s">
-        <v>680</v>
+        <v>655</v>
       </c>
       <c r="F272" s="4" t="s">
-        <v>681</v>
+        <v>656</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -8267,16 +8317,16 @@
         <v>4</v>
       </c>
       <c r="C273" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D273" t="s">
-        <v>682</v>
+        <v>657</v>
       </c>
       <c r="F273" s="4" t="s">
-        <v>683</v>
+        <v>658</v>
       </c>
       <c r="G273" s="4" t="s">
-        <v>684</v>
+        <v>659</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -8287,13 +8337,13 @@
         <v>4</v>
       </c>
       <c r="C274" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D274" t="s">
-        <v>685</v>
+        <v>660</v>
       </c>
       <c r="F274" s="4" t="s">
-        <v>686</v>
+        <v>661</v>
       </c>
       <c r="G274" s="4" t="s">
         <v>34</v>
@@ -8304,10 +8354,10 @@
         <v>3</v>
       </c>
       <c r="D275" t="s">
-        <v>687</v>
+        <v>662</v>
       </c>
       <c r="F275" s="4" t="s">
-        <v>688</v>
+        <v>663</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -8318,16 +8368,16 @@
         <v>4</v>
       </c>
       <c r="C276" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D276" t="s">
-        <v>689</v>
+        <v>664</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>690</v>
+        <v>665</v>
       </c>
       <c r="G276" s="4" t="s">
-        <v>691</v>
+        <v>666</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -8338,13 +8388,13 @@
         <v>4</v>
       </c>
       <c r="C277" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D277" t="s">
-        <v>692</v>
+        <v>667</v>
       </c>
       <c r="F277" s="4" t="s">
-        <v>693</v>
+        <v>668</v>
       </c>
       <c r="G277" s="4" t="s">
         <v>34</v>
@@ -8355,10 +8405,10 @@
         <v>3</v>
       </c>
       <c r="D278" t="s">
-        <v>694</v>
+        <v>669</v>
       </c>
       <c r="F278" s="4" t="s">
-        <v>695</v>
+        <v>670</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -8369,16 +8419,16 @@
         <v>4</v>
       </c>
       <c r="C279" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D279" t="s">
-        <v>696</v>
+        <v>671</v>
       </c>
       <c r="F279" s="4" t="s">
-        <v>697</v>
+        <v>672</v>
       </c>
       <c r="G279" s="4" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -8389,13 +8439,13 @@
         <v>4</v>
       </c>
       <c r="C280" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D280" t="s">
-        <v>699</v>
+        <v>674</v>
       </c>
       <c r="F280" s="4" t="s">
-        <v>700</v>
+        <v>675</v>
       </c>
       <c r="G280" s="4" t="s">
         <v>34</v>
@@ -8406,13 +8456,13 @@
         <v>2</v>
       </c>
       <c r="D281" t="s">
-        <v>701</v>
+        <v>676</v>
       </c>
       <c r="E281" t="s">
-        <v>702</v>
+        <v>677</v>
       </c>
       <c r="F281" s="4" t="s">
-        <v>703</v>
+        <v>678</v>
       </c>
     </row>
     <row r="282" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -8420,10 +8470,10 @@
         <v>3</v>
       </c>
       <c r="D282" t="s">
-        <v>704</v>
+        <v>679</v>
       </c>
       <c r="F282" s="4" t="s">
-        <v>705</v>
+        <v>680</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -8434,13 +8484,13 @@
         <v>4</v>
       </c>
       <c r="C283" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D283" t="s">
-        <v>706</v>
+        <v>681</v>
       </c>
       <c r="F283" s="4" t="s">
-        <v>707</v>
+        <v>682</v>
       </c>
       <c r="G283" s="4" t="s">
         <v>34</v>
@@ -8451,10 +8501,10 @@
         <v>3</v>
       </c>
       <c r="D284" t="s">
-        <v>708</v>
+        <v>683</v>
       </c>
       <c r="F284" s="4" t="s">
-        <v>709</v>
+        <v>684</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -8465,16 +8515,16 @@
         <v>4</v>
       </c>
       <c r="C285" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D285" t="s">
-        <v>710</v>
+        <v>685</v>
       </c>
       <c r="F285" s="4" t="s">
-        <v>711</v>
+        <v>686</v>
       </c>
       <c r="G285" s="4" t="s">
-        <v>712</v>
+        <v>687</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -8482,10 +8532,10 @@
         <v>3</v>
       </c>
       <c r="D286" t="s">
-        <v>713</v>
+        <v>688</v>
       </c>
       <c r="F286" s="4" t="s">
-        <v>714</v>
+        <v>689</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -8496,16 +8546,16 @@
         <v>4</v>
       </c>
       <c r="C287" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D287" t="s">
-        <v>715</v>
+        <v>690</v>
       </c>
       <c r="F287" s="4" t="s">
-        <v>716</v>
+        <v>691</v>
       </c>
       <c r="G287" s="4" t="s">
-        <v>717</v>
+        <v>692</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -8513,10 +8563,10 @@
         <v>3</v>
       </c>
       <c r="D288" t="s">
-        <v>718</v>
+        <v>693</v>
       </c>
       <c r="F288" s="4" t="s">
-        <v>719</v>
+        <v>694</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -8527,16 +8577,16 @@
         <v>4</v>
       </c>
       <c r="C289" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D289" t="s">
-        <v>720</v>
+        <v>695</v>
       </c>
       <c r="F289" s="4" t="s">
-        <v>721</v>
+        <v>696</v>
       </c>
       <c r="G289" s="4" t="s">
-        <v>722</v>
+        <v>697</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -8547,16 +8597,16 @@
         <v>4</v>
       </c>
       <c r="C290" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D290" t="s">
-        <v>723</v>
+        <v>698</v>
       </c>
       <c r="F290" s="4" t="s">
-        <v>724</v>
+        <v>699</v>
       </c>
       <c r="G290" s="4" t="s">
-        <v>725</v>
+        <v>700</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
@@ -8564,10 +8614,10 @@
         <v>1</v>
       </c>
       <c r="D291" t="s">
-        <v>726</v>
+        <v>701</v>
       </c>
       <c r="E291" t="s">
-        <v>727</v>
+        <v>702</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -8575,13 +8625,13 @@
         <v>2</v>
       </c>
       <c r="D292" t="s">
-        <v>728</v>
+        <v>703</v>
       </c>
       <c r="E292" t="s">
-        <v>729</v>
+        <v>704</v>
       </c>
       <c r="F292" s="4" t="s">
-        <v>730</v>
+        <v>705</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -8589,10 +8639,10 @@
         <v>3</v>
       </c>
       <c r="D293" t="s">
-        <v>731</v>
+        <v>706</v>
       </c>
       <c r="F293" s="4" t="s">
-        <v>732</v>
+        <v>707</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="96" x14ac:dyDescent="0.2">
@@ -8603,16 +8653,16 @@
         <v>4</v>
       </c>
       <c r="C294" t="s">
-        <v>909</v>
+        <v>883</v>
       </c>
       <c r="D294" t="s">
-        <v>733</v>
+        <v>708</v>
       </c>
       <c r="F294" s="4" t="s">
-        <v>734</v>
+        <v>709</v>
       </c>
       <c r="G294" s="4" t="s">
-        <v>735</v>
+        <v>710</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -8620,13 +8670,13 @@
         <v>2</v>
       </c>
       <c r="D295" t="s">
-        <v>736</v>
+        <v>711</v>
       </c>
       <c r="E295" t="s">
-        <v>737</v>
+        <v>712</v>
       </c>
       <c r="F295" s="4" t="s">
-        <v>738</v>
+        <v>713</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -8634,10 +8684,10 @@
         <v>3</v>
       </c>
       <c r="D296" t="s">
-        <v>739</v>
+        <v>714</v>
       </c>
       <c r="F296" s="4" t="s">
-        <v>740</v>
+        <v>715</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -8648,16 +8698,16 @@
         <v>4</v>
       </c>
       <c r="C297" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D297" t="s">
-        <v>741</v>
+        <v>716</v>
       </c>
       <c r="F297" s="4" t="s">
-        <v>742</v>
+        <v>717</v>
       </c>
       <c r="G297" s="4" t="s">
-        <v>743</v>
+        <v>718</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -8665,10 +8715,10 @@
         <v>3</v>
       </c>
       <c r="D298" t="s">
-        <v>744</v>
+        <v>719</v>
       </c>
       <c r="F298" s="4" t="s">
-        <v>745</v>
+        <v>720</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -8679,16 +8729,16 @@
         <v>4</v>
       </c>
       <c r="C299" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D299" t="s">
-        <v>746</v>
+        <v>721</v>
       </c>
       <c r="F299" s="4" t="s">
-        <v>747</v>
+        <v>722</v>
       </c>
       <c r="G299" s="4" t="s">
-        <v>748</v>
+        <v>723</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -8699,16 +8749,16 @@
         <v>4</v>
       </c>
       <c r="C300" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D300" t="s">
-        <v>749</v>
+        <v>724</v>
       </c>
       <c r="F300" s="4" t="s">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="G300" s="4" t="s">
-        <v>751</v>
+        <v>726</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -8716,10 +8766,10 @@
         <v>3</v>
       </c>
       <c r="D301" t="s">
-        <v>752</v>
+        <v>727</v>
       </c>
       <c r="F301" s="4" t="s">
-        <v>753</v>
+        <v>728</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -8730,13 +8780,13 @@
         <v>4</v>
       </c>
       <c r="C302" t="s">
-        <v>909</v>
+        <v>883</v>
       </c>
       <c r="D302" t="s">
-        <v>754</v>
+        <v>729</v>
       </c>
       <c r="F302" s="4" t="s">
-        <v>755</v>
+        <v>730</v>
       </c>
       <c r="G302" s="4" t="s">
         <v>34</v>
@@ -8750,13 +8800,13 @@
         <v>4</v>
       </c>
       <c r="C303" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D303" t="s">
-        <v>756</v>
+        <v>731</v>
       </c>
       <c r="F303" s="4" t="s">
-        <v>757</v>
+        <v>732</v>
       </c>
       <c r="G303" s="4" t="s">
         <v>34</v>
@@ -8767,10 +8817,10 @@
         <v>3</v>
       </c>
       <c r="D304" t="s">
-        <v>758</v>
+        <v>733</v>
       </c>
       <c r="F304" s="4" t="s">
-        <v>759</v>
+        <v>734</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -8781,16 +8831,16 @@
         <v>4</v>
       </c>
       <c r="C305" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D305" t="s">
-        <v>760</v>
+        <v>735</v>
       </c>
       <c r="F305" s="4" t="s">
-        <v>761</v>
+        <v>736</v>
       </c>
       <c r="G305" s="4" t="s">
-        <v>762</v>
+        <v>737</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -8798,10 +8848,10 @@
         <v>3</v>
       </c>
       <c r="D306" t="s">
-        <v>763</v>
+        <v>738</v>
       </c>
       <c r="F306" s="4" t="s">
-        <v>764</v>
+        <v>739</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -8812,13 +8862,13 @@
         <v>4</v>
       </c>
       <c r="C307" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D307" t="s">
-        <v>765</v>
+        <v>740</v>
       </c>
       <c r="F307" s="4" t="s">
-        <v>766</v>
+        <v>741</v>
       </c>
       <c r="G307" s="4" t="s">
         <v>34</v>
@@ -8829,13 +8879,13 @@
         <v>2</v>
       </c>
       <c r="D308" t="s">
-        <v>767</v>
+        <v>742</v>
       </c>
       <c r="E308" t="s">
-        <v>768</v>
+        <v>743</v>
       </c>
       <c r="F308" s="4" t="s">
-        <v>769</v>
+        <v>744</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -8843,10 +8893,10 @@
         <v>3</v>
       </c>
       <c r="D309" t="s">
-        <v>770</v>
+        <v>745</v>
       </c>
       <c r="F309" s="4" t="s">
-        <v>771</v>
+        <v>746</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -8857,13 +8907,13 @@
         <v>4</v>
       </c>
       <c r="C310" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D310" t="s">
-        <v>772</v>
+        <v>747</v>
       </c>
       <c r="F310" s="4" t="s">
-        <v>773</v>
+        <v>748</v>
       </c>
       <c r="G310" s="4" t="s">
         <v>34</v>
@@ -8877,13 +8927,13 @@
         <v>4</v>
       </c>
       <c r="C311" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D311" t="s">
-        <v>774</v>
+        <v>749</v>
       </c>
       <c r="F311" s="4" t="s">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="G311" s="4" t="s">
         <v>34</v>
@@ -8894,10 +8944,10 @@
         <v>3</v>
       </c>
       <c r="D312" t="s">
-        <v>776</v>
+        <v>751</v>
       </c>
       <c r="F312" s="4" t="s">
-        <v>777</v>
+        <v>752</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -8908,16 +8958,16 @@
         <v>4</v>
       </c>
       <c r="C313" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D313" t="s">
-        <v>778</v>
+        <v>753</v>
       </c>
       <c r="F313" s="4" t="s">
-        <v>779</v>
+        <v>754</v>
       </c>
       <c r="G313" s="4" t="s">
-        <v>780</v>
+        <v>755</v>
       </c>
     </row>
     <row r="314" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -8928,16 +8978,16 @@
         <v>4</v>
       </c>
       <c r="C314" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D314" t="s">
-        <v>781</v>
+        <v>756</v>
       </c>
       <c r="F314" s="4" t="s">
-        <v>782</v>
+        <v>757</v>
       </c>
       <c r="G314" s="4" t="s">
-        <v>783</v>
+        <v>758</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -8945,10 +8995,10 @@
         <v>3</v>
       </c>
       <c r="D315" t="s">
-        <v>784</v>
+        <v>759</v>
       </c>
       <c r="F315" s="4" t="s">
-        <v>785</v>
+        <v>760</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -8959,13 +9009,13 @@
         <v>4</v>
       </c>
       <c r="C316" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D316" t="s">
-        <v>786</v>
+        <v>761</v>
       </c>
       <c r="F316" s="4" t="s">
-        <v>787</v>
+        <v>762</v>
       </c>
       <c r="G316" s="4" t="s">
         <v>34</v>
@@ -8979,16 +9029,16 @@
         <v>4</v>
       </c>
       <c r="C317" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D317" t="s">
-        <v>788</v>
+        <v>763</v>
       </c>
       <c r="F317" s="4" t="s">
-        <v>789</v>
+        <v>764</v>
       </c>
       <c r="G317" s="4" t="s">
-        <v>790</v>
+        <v>765</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -8996,10 +9046,10 @@
         <v>3</v>
       </c>
       <c r="D318" t="s">
-        <v>791</v>
+        <v>766</v>
       </c>
       <c r="F318" s="4" t="s">
-        <v>792</v>
+        <v>767</v>
       </c>
     </row>
     <row r="319" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -9010,16 +9060,16 @@
         <v>4</v>
       </c>
       <c r="C319" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D319" t="s">
-        <v>793</v>
+        <v>768</v>
       </c>
       <c r="F319" s="4" t="s">
-        <v>794</v>
+        <v>769</v>
       </c>
       <c r="G319" s="4" t="s">
-        <v>795</v>
+        <v>770</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -9027,10 +9077,10 @@
         <v>3</v>
       </c>
       <c r="D320" t="s">
-        <v>796</v>
+        <v>771</v>
       </c>
       <c r="F320" s="4" t="s">
-        <v>797</v>
+        <v>772</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -9041,16 +9091,16 @@
         <v>4</v>
       </c>
       <c r="C321" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="D321" t="s">
-        <v>798</v>
+        <v>773</v>
       </c>
       <c r="F321" s="4" t="s">
-        <v>799</v>
+        <v>930</v>
       </c>
       <c r="G321" s="4" t="s">
-        <v>800</v>
+        <v>774</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -9061,13 +9111,13 @@
         <v>4</v>
       </c>
       <c r="C322" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D322" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="F322" s="4" t="s">
-        <v>802</v>
+        <v>776</v>
       </c>
       <c r="G322" s="4" t="s">
         <v>34</v>
@@ -9078,13 +9128,13 @@
         <v>2</v>
       </c>
       <c r="D323" t="s">
-        <v>803</v>
+        <v>777</v>
       </c>
       <c r="E323" t="s">
-        <v>804</v>
+        <v>778</v>
       </c>
       <c r="F323" s="4" t="s">
-        <v>805</v>
+        <v>779</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -9092,10 +9142,10 @@
         <v>3</v>
       </c>
       <c r="D324" t="s">
-        <v>806</v>
+        <v>780</v>
       </c>
       <c r="F324" s="4" t="s">
-        <v>807</v>
+        <v>781</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -9106,16 +9156,16 @@
         <v>4</v>
       </c>
       <c r="C325" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D325" t="s">
-        <v>808</v>
+        <v>782</v>
       </c>
       <c r="F325" s="4" t="s">
-        <v>809</v>
+        <v>783</v>
       </c>
       <c r="G325" s="4" t="s">
-        <v>810</v>
+        <v>784</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -9123,13 +9173,13 @@
         <v>2</v>
       </c>
       <c r="D326" t="s">
-        <v>811</v>
+        <v>785</v>
       </c>
       <c r="E326" t="s">
-        <v>812</v>
+        <v>786</v>
       </c>
       <c r="F326" s="4" t="s">
-        <v>813</v>
+        <v>787</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -9137,10 +9187,10 @@
         <v>3</v>
       </c>
       <c r="D327" t="s">
-        <v>814</v>
+        <v>788</v>
       </c>
       <c r="F327" s="4" t="s">
-        <v>815</v>
+        <v>789</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -9151,16 +9201,16 @@
         <v>4</v>
       </c>
       <c r="C328" t="s">
-        <v>909</v>
+        <v>883</v>
       </c>
       <c r="D328" t="s">
-        <v>816</v>
+        <v>790</v>
       </c>
       <c r="F328" s="4" t="s">
-        <v>817</v>
+        <v>791</v>
       </c>
       <c r="G328" s="4" t="s">
-        <v>818</v>
+        <v>792</v>
       </c>
     </row>
     <row r="329" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -9171,13 +9221,13 @@
         <v>4</v>
       </c>
       <c r="C329" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D329" t="s">
-        <v>819</v>
+        <v>793</v>
       </c>
       <c r="F329" s="4" t="s">
-        <v>820</v>
+        <v>794</v>
       </c>
       <c r="G329" s="4" t="s">
         <v>34</v>
@@ -9188,10 +9238,10 @@
         <v>3</v>
       </c>
       <c r="D330" t="s">
-        <v>821</v>
+        <v>795</v>
       </c>
       <c r="F330" s="4" t="s">
-        <v>822</v>
+        <v>796</v>
       </c>
     </row>
     <row r="331" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -9202,16 +9252,16 @@
         <v>4</v>
       </c>
       <c r="C331" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D331" t="s">
-        <v>823</v>
+        <v>797</v>
       </c>
       <c r="F331" s="4" t="s">
-        <v>824</v>
+        <v>798</v>
       </c>
       <c r="G331" s="4" t="s">
-        <v>825</v>
+        <v>799</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.2">
@@ -9219,10 +9269,10 @@
         <v>1</v>
       </c>
       <c r="D332" t="s">
-        <v>826</v>
+        <v>800</v>
       </c>
       <c r="E332" t="s">
-        <v>827</v>
+        <v>801</v>
       </c>
     </row>
     <row r="333" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -9230,13 +9280,13 @@
         <v>2</v>
       </c>
       <c r="D333" t="s">
-        <v>828</v>
+        <v>802</v>
       </c>
       <c r="E333" t="s">
-        <v>829</v>
+        <v>803</v>
       </c>
       <c r="F333" s="4" t="s">
-        <v>830</v>
+        <v>804</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -9244,10 +9294,10 @@
         <v>3</v>
       </c>
       <c r="D334" t="s">
-        <v>831</v>
+        <v>805</v>
       </c>
       <c r="F334" s="4" t="s">
-        <v>832</v>
+        <v>806</v>
       </c>
     </row>
     <row r="335" spans="1:7" ht="96" x14ac:dyDescent="0.2">
@@ -9258,16 +9308,16 @@
         <v>4</v>
       </c>
       <c r="C335" t="s">
-        <v>909</v>
+        <v>883</v>
       </c>
       <c r="D335" t="s">
-        <v>833</v>
+        <v>807</v>
       </c>
       <c r="F335" s="4" t="s">
-        <v>834</v>
+        <v>808</v>
       </c>
       <c r="G335" s="4" t="s">
-        <v>835</v>
+        <v>809</v>
       </c>
     </row>
     <row r="336" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -9278,13 +9328,13 @@
         <v>4</v>
       </c>
       <c r="C336" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D336" t="s">
-        <v>836</v>
+        <v>810</v>
       </c>
       <c r="F336" s="4" t="s">
-        <v>837</v>
+        <v>811</v>
       </c>
       <c r="G336" s="4" t="s">
         <v>34</v>
@@ -9295,13 +9345,13 @@
         <v>2</v>
       </c>
       <c r="D337" t="s">
-        <v>838</v>
+        <v>812</v>
       </c>
       <c r="E337" t="s">
-        <v>812</v>
+        <v>786</v>
       </c>
       <c r="F337" s="4" t="s">
-        <v>839</v>
+        <v>813</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -9309,10 +9359,10 @@
         <v>3</v>
       </c>
       <c r="D338" t="s">
-        <v>840</v>
+        <v>814</v>
       </c>
       <c r="F338" s="4" t="s">
-        <v>841</v>
+        <v>815</v>
       </c>
     </row>
     <row r="339" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -9323,13 +9373,13 @@
         <v>4</v>
       </c>
       <c r="C339" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D339" t="s">
-        <v>842</v>
+        <v>816</v>
       </c>
       <c r="F339" s="4" t="s">
-        <v>843</v>
+        <v>817</v>
       </c>
       <c r="G339" s="4" t="s">
         <v>34</v>
@@ -9340,13 +9390,13 @@
         <v>2</v>
       </c>
       <c r="D340" t="s">
-        <v>844</v>
+        <v>818</v>
       </c>
       <c r="E340" t="s">
-        <v>737</v>
+        <v>712</v>
       </c>
       <c r="F340" s="4" t="s">
-        <v>845</v>
+        <v>819</v>
       </c>
     </row>
     <row r="341" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -9354,10 +9404,10 @@
         <v>3</v>
       </c>
       <c r="D341" t="s">
-        <v>846</v>
+        <v>820</v>
       </c>
       <c r="F341" s="4" t="s">
-        <v>847</v>
+        <v>821</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -9368,16 +9418,16 @@
         <v>4</v>
       </c>
       <c r="C342" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D342" t="s">
-        <v>848</v>
+        <v>822</v>
       </c>
       <c r="F342" s="4" t="s">
-        <v>849</v>
+        <v>823</v>
       </c>
       <c r="G342" s="4" t="s">
-        <v>850</v>
+        <v>824</v>
       </c>
     </row>
     <row r="343" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -9388,16 +9438,16 @@
         <v>4</v>
       </c>
       <c r="C343" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D343" t="s">
-        <v>851</v>
+        <v>825</v>
       </c>
       <c r="F343" s="4" t="s">
-        <v>852</v>
+        <v>826</v>
       </c>
       <c r="G343" s="4" t="s">
-        <v>853</v>
+        <v>827</v>
       </c>
     </row>
     <row r="344" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -9405,10 +9455,10 @@
         <v>3</v>
       </c>
       <c r="D344" t="s">
-        <v>854</v>
+        <v>828</v>
       </c>
       <c r="F344" s="4" t="s">
-        <v>855</v>
+        <v>829</v>
       </c>
     </row>
     <row r="345" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -9419,16 +9469,16 @@
         <v>4</v>
       </c>
       <c r="C345" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D345" t="s">
-        <v>856</v>
+        <v>830</v>
       </c>
       <c r="F345" s="4" t="s">
-        <v>857</v>
+        <v>831</v>
       </c>
       <c r="G345" s="4" t="s">
-        <v>858</v>
+        <v>832</v>
       </c>
     </row>
     <row r="346" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -9436,10 +9486,10 @@
         <v>3</v>
       </c>
       <c r="D346" t="s">
-        <v>859</v>
+        <v>833</v>
       </c>
       <c r="F346" s="4" t="s">
-        <v>860</v>
+        <v>834</v>
       </c>
     </row>
     <row r="347" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -9450,16 +9500,16 @@
         <v>4</v>
       </c>
       <c r="C347" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="D347" t="s">
-        <v>861</v>
+        <v>835</v>
       </c>
       <c r="F347" s="4" t="s">
-        <v>862</v>
+        <v>836</v>
       </c>
       <c r="G347" s="4" t="s">
-        <v>863</v>
+        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -9484,13 +9534,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>895</v>
+        <v>869</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>894</v>
+        <v>868</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -9498,10 +9548,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>896</v>
+        <v>870</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>916</v>
+        <v>887</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -9509,10 +9559,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>897</v>
+        <v>871</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>917</v>
+        <v>888</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -9520,10 +9570,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>898</v>
+        <v>872</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>918</v>
+        <v>889</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="48" x14ac:dyDescent="0.2">
@@ -9531,10 +9581,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>899</v>
+        <v>873</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>919</v>
+        <v>890</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="48" x14ac:dyDescent="0.2">
@@ -9542,10 +9592,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>900</v>
+        <v>874</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>920</v>
+        <v>891</v>
       </c>
     </row>
   </sheetData>
@@ -9555,47 +9605,74 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793A9884-A8FA-0245-8718-D92EEEA60D41}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>864</v>
+        <v>838</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>894</v>
+        <v>868</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>903</v>
+        <v>877</v>
       </c>
       <c r="B2" t="s">
-        <v>906</v>
+        <v>880</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>904</v>
+        <v>878</v>
       </c>
       <c r="B3" t="s">
-        <v>907</v>
+        <v>881</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="B4" t="s">
-        <v>908</v>
+        <v>882</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>894</v>
+      </c>
+      <c r="B5" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>896</v>
+      </c>
+      <c r="B6" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>897</v>
+      </c>
+      <c r="B7" t="s">
+        <v>899</v>
       </c>
     </row>
   </sheetData>

--- a/tools/ccb/ccb-cff-2023-03-01.xlsx
+++ b/tools/ccb/ccb-cff-2023-03-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/ccb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0124940-EB5E-564C-8F13-91C6972E6548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84376F9D-3411-264B-913C-AF0DA89BC8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="22700" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22700" windowHeight="20520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="2" r:id="rId1"/>
@@ -2938,19 +2938,10 @@
     <t>BK</t>
   </si>
   <si>
-    <t>basic - key measure</t>
-  </si>
-  <si>
     <t>IK</t>
   </si>
   <si>
     <t>EK</t>
-  </si>
-  <si>
-    <t>important - key measure</t>
-  </si>
-  <si>
-    <t>essential - key measure</t>
   </si>
   <si>
     <t>I,E,IK,EK</t>
@@ -3053,6 +3044,15 @@
   </si>
   <si>
     <t>[KEY MEASURE for ESSENTIAL] The organization shall perform a documented risk assessment on organization's critical system transactions and authenticate users, devices, and other assets (e.g., single-factor, multi-factor) commensurate with the risk of the transaction (e.g., individuals’ security and privacy risks and other organizational risks).</t>
+  </si>
+  <si>
+    <t>basic - key measures</t>
+  </si>
+  <si>
+    <t>important - key measures</t>
+  </si>
+  <si>
+    <t>essential - key measures</t>
   </si>
 </sst>
 </file>
@@ -3454,7 +3454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699B1651-6DC7-1E43-A5B6-8EF15B32842F}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="231" workbookViewId="0">
+    <sheetView zoomScale="231" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -4065,13 +4065,13 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D25" t="s">
         <v>67</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>68</v>
@@ -4973,13 +4973,13 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D80" t="s">
         <v>205</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>206</v>
@@ -4993,13 +4993,13 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D81" t="s">
         <v>207</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>34</v>
@@ -5151,13 +5151,13 @@
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D91" t="s">
         <v>229</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>230</v>
@@ -5373,13 +5373,13 @@
         <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D103" t="s">
         <v>262</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>263</v>
@@ -5393,13 +5393,13 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D104" t="s">
         <v>264</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>265</v>
@@ -5464,13 +5464,13 @@
         <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D108" t="s">
         <v>274</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>275</v>
@@ -5484,13 +5484,13 @@
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D109" t="s">
         <v>276</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>277</v>
@@ -5504,13 +5504,13 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D110" t="s">
         <v>278</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>279</v>
@@ -5524,13 +5524,13 @@
         <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D111" t="s">
         <v>280</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>281</v>
@@ -5655,13 +5655,13 @@
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D118" t="s">
         <v>297</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>298</v>
@@ -5675,13 +5675,13 @@
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D119" t="s">
         <v>299</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>300</v>
@@ -5695,13 +5695,13 @@
         <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D120" t="s">
         <v>301</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>302</v>
@@ -5715,13 +5715,13 @@
         <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D121" t="s">
         <v>303</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>304</v>
@@ -5837,13 +5837,13 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>317</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>318</v>
@@ -6375,13 +6375,13 @@
         <v>4</v>
       </c>
       <c r="C160" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D160" t="s">
         <v>395</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>396</v>
@@ -6573,13 +6573,13 @@
         <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D172" t="s">
         <v>421</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="G172" s="4" t="s">
         <v>422</v>
@@ -6726,13 +6726,13 @@
         <v>4</v>
       </c>
       <c r="C181" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D181" t="s">
         <v>442</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="G181" s="4" t="s">
         <v>443</v>
@@ -7228,13 +7228,13 @@
         <v>4</v>
       </c>
       <c r="C210" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D210" t="s">
         <v>514</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="G210" s="4" t="s">
         <v>515</v>
@@ -7308,13 +7308,13 @@
         <v>4</v>
       </c>
       <c r="C214" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D214" t="s">
         <v>525</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="G214" s="4" t="s">
         <v>526</v>
@@ -7328,13 +7328,13 @@
         <v>4</v>
       </c>
       <c r="C215" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D215" t="s">
         <v>527</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="G215" s="4" t="s">
         <v>34</v>
@@ -7348,13 +7348,13 @@
         <v>4</v>
       </c>
       <c r="C216" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D216" t="s">
         <v>528</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="G216" s="4" t="s">
         <v>34</v>
@@ -7464,13 +7464,13 @@
         <v>4</v>
       </c>
       <c r="C223" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D223" t="s">
         <v>542</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="G223" s="4" t="s">
         <v>543</v>
@@ -7595,13 +7595,13 @@
         <v>4</v>
       </c>
       <c r="C230" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D230" t="s">
         <v>558</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="G230" s="4" t="s">
         <v>559</v>
@@ -7793,13 +7793,13 @@
         <v>4</v>
       </c>
       <c r="C242" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D242" t="s">
         <v>586</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="G242" s="4" t="s">
         <v>587</v>
@@ -7875,13 +7875,13 @@
         <v>4</v>
       </c>
       <c r="C247" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D247" t="s">
         <v>597</v>
       </c>
       <c r="F247" s="4" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="G247" s="4" t="s">
         <v>598</v>
@@ -8062,13 +8062,13 @@
         <v>4</v>
       </c>
       <c r="C258" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D258" t="s">
         <v>621</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="G258" s="4" t="s">
         <v>622</v>
@@ -8235,13 +8235,13 @@
         <v>4</v>
       </c>
       <c r="C268" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D268" t="s">
         <v>646</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="G268" s="4" t="s">
         <v>647</v>
@@ -9091,13 +9091,13 @@
         <v>4</v>
       </c>
       <c r="C321" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D321" t="s">
         <v>773</v>
       </c>
       <c r="F321" s="4" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="G321" s="4" t="s">
         <v>774</v>
@@ -9607,8 +9607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793A9884-A8FA-0245-8718-D92EEEA60D41}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9656,23 +9656,23 @@
         <v>894</v>
       </c>
       <c r="B5" t="s">
-        <v>895</v>
+        <v>930</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B6" t="s">
-        <v>898</v>
+        <v>931</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B7" t="s">
-        <v>899</v>
+        <v>932</v>
       </c>
     </row>
   </sheetData>

--- a/tools/ccb/ccb-cff-2023-03-01.xlsx
+++ b/tools/ccb/ccb-cff-2023-03-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/ccb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E67A53F-FAA7-ED46-9389-66D45B9FA91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5E0F8C-1740-D44F-983C-313BFD797315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5120" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2195" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="1483">
   <si>
     <t>assessable</t>
   </si>
@@ -4769,9 +4769,6 @@
     <t>[MESURE CLÉ] L'organisation doit établir des exigences contractuelles lui permettant d'examiner les programmes de "sécurité des informations et de cybersécurité" mis en œuvre par les fournisseurs et les partenaires tiers.</t>
   </si>
   <si>
-    <t>description-doc</t>
-  </si>
-  <si>
     <t>Standard process does not exist.</t>
   </si>
   <si>
@@ -4794,9 +4791,6 @@
   <si>
     <t>Formally approved Process documentation exists, and exceptions are documented and approved.
 Documented &amp; approved exceptions &lt; 0,5% of the time.</t>
-  </si>
-  <si>
-    <t>description-doc[fr]</t>
   </si>
   <si>
     <t>Répétable</t>
@@ -4876,6 +4870,38 @@
   </si>
   <si>
     <t>CCB CyberFundamentals Framework - 2023-03-01</t>
+  </si>
+  <si>
+    <t>library_publication_date</t>
+  </si>
+  <si>
+    <t>description_doc</t>
+  </si>
+  <si>
+    <t>description_doc[fr]</t>
+  </si>
+  <si>
+    <t>library_name[fr]</t>
+  </si>
+  <si>
+    <t>library_description[fr]</t>
+  </si>
+  <si>
+    <t>framework_name[fr]</t>
+  </si>
+  <si>
+    <t>framework_description[fr]</t>
+  </si>
+  <si>
+    <t>CCB CyberFondamentaux - 2023-03-01</t>
+  </si>
+  <si>
+    <t>Centre For Cybersecurity Belgium - CyberFondamentaux</t>
+  </si>
+  <si>
+    <t>Centre For Cybersecurity Belgium - CyberFondamentaux
+With content from CyFun Self-Assessment tool V2024-11-05
+https://ccb.belgium.be</t>
   </si>
 </sst>
 </file>
@@ -4964,7 +4990,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5022,6 +5048,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5325,10 +5354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699B1651-6DC7-1E43-A5B6-8EF15B32842F}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="231" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="231" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5338,7 +5367,7 @@
     <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>838</v>
       </c>
@@ -5346,7 +5375,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>840</v>
       </c>
@@ -5354,119 +5383,116 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B3" s="24">
+        <v>45676</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>841</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>843</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>845</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>846</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>848</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>850</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>852</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>854</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>856</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>857</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>858</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>884</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>885</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B16" s="1">
         <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>859</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="C16" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -5474,10 +5500,10 @@
         <v>859</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="C17" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -5485,10 +5511,53 @@
         <v>859</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C18" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>859</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>874</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1481</v>
       </c>
     </row>
   </sheetData>
@@ -13907,8 +13976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8EE66F-5BF1-6F47-9F88-8D8C53839AC6}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1"/>
+    <sheetView zoomScale="173" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13933,7 +14002,7 @@
         <v>866</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>1443</v>
+        <v>1474</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>1397</v>
@@ -13942,7 +14011,7 @@
         <v>1398</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>1451</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -13953,19 +14022,19 @@
         <v>868</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>1444</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1445</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>868</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -13976,19 +14045,19 @@
         <v>869</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>1446</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>1447</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -13999,19 +14068,19 @@
         <v>870</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="96" x14ac:dyDescent="0.2">
@@ -14022,19 +14091,19 @@
         <v>871</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="96" x14ac:dyDescent="0.2">
@@ -14045,19 +14114,19 @@
         <v>872</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
   </sheetData>
@@ -14105,7 +14174,7 @@
         <v>878</v>
       </c>
       <c r="D2" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -14127,7 +14196,7 @@
         <v>880</v>
       </c>
       <c r="D4" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -14138,7 +14207,7 @@
         <v>922</v>
       </c>
       <c r="D5" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -14149,7 +14218,7 @@
         <v>923</v>
       </c>
       <c r="D6" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -14160,7 +14229,7 @@
         <v>924</v>
       </c>
       <c r="D7" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
   </sheetData>

--- a/tools/ccb/ccb-cff-2023-03-01.xlsx
+++ b/tools/ccb/ccb-cff-2023-03-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/ccb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5E0F8C-1740-D44F-983C-313BFD797315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37BFA25-BB15-A84B-9B1B-B8ABB46FA6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="2" r:id="rId1"/>
@@ -4821,33 +4821,8 @@
 Les exceptions sont documentées et approuvées dans moins de 5 % des cas.</t>
   </si>
   <si>
-    <t>Un processus formel existe et est mis en œuvre. Des preuves sont disponibles pour la plupart des activités. 
-Moins de 10 % d’exceptions au processus.</t>
-  </si>
-  <si>
-    <t>Formal process exists and is implemented. Evidence available for all activities. Detailed metrics of the process are captured and reported.
-Minimal target for metrics has been established.
-Less than 5% of process exceptions.</t>
-  </si>
-  <si>
-    <t>Formal process exists and is implemented. Evidence available for most activities.
-Less than 10% process exceptions.</t>
-  </si>
-  <si>
-    <t>Formal process exists and is implemented. Evidence available for all activities. Detailed metrics of the process are captured and reported.
-Minimal target for metrics has been established and continually improving.
-Less than 1% of process exceptions.</t>
-  </si>
-  <si>
     <t>Il existe une documentation formellement approuvée sur les processus et les exceptions sont documentées et approuvées.
 Exceptions documentées et approuvées &lt; 3 % du temps.</t>
-  </si>
-  <si>
-    <t>Un processus formel existe et est mis en œuvre. Des preuves sont disponibles pour toutes les activités. Des mesures détaillées du processus sont saisies et communiquées. Un objectif minimum est fixé pour les indicateurs.
-Moins de 5 % des exceptions au processus.</t>
-  </si>
-  <si>
-    <t>Un processus formel existe et est mis en œuvre. Des preuves sont disponibles pour toutes les activités. Des mesures détaillées du processus sont saisies et communiquées. Des objectifs minimaux sont fixés pour les indicateurs et sont améliorés en permanence. Moins de 1 % des exceptions au processus.</t>
   </si>
   <si>
     <t>Il existe une documentation formellement approuvée sur les processus et les exceptions sont documentées et approuvées.
@@ -4902,6 +4877,44 @@
     <t>Centre For Cybersecurity Belgium - CyberFondamentaux
 With content from CyFun Self-Assessment tool V2024-11-05
 https://ccb.belgium.be</t>
+  </si>
+  <si>
+    <t>Un processus formel existe et est mis en œuvre.
+Des preuves sont disponibles pour la plupart des activités. 
+Moins de 10 % d’exceptions au processus.</t>
+  </si>
+  <si>
+    <t>Un processus formel existe et est mis en œuvre.
+Des preuves sont disponibles pour toutes les activités.
+Des mesures détaillées du processus sont saisies et communiquées.
+Un objectif minimum est fixé pour les indicateurs.
+Moins de 5 % des exceptions au processus.</t>
+  </si>
+  <si>
+    <t>Un processus formel existe et est mis en œuvre.
+Des preuves sont disponibles pour toutes les activités.
+Des mesures détaillées du processus sont saisies et communiquées.
+Des objectifs minimaux sont fixés pour les indicateurs et sont améliorés en permanence.
+Moins de 1 % des exceptions au processus.</t>
+  </si>
+  <si>
+    <t>Formal process exists and is implemented.
+Evidence available for all activities.
+Detailed metrics of the process are captured and reported.
+Minimal target for metrics has been established.
+Less than 5% of process exceptions.</t>
+  </si>
+  <si>
+    <t>Formal process exists and is implemented.
+Evidence available for most activities.
+Less than 10% process exceptions.</t>
+  </si>
+  <si>
+    <t>Formal process exists and is implemented.
+Evidence available for all activities.
+Detailed metrics of the process are captured and reported.
+Minimal target for metrics has been established and continually improving.
+Less than 1% of process exceptions.</t>
   </si>
 </sst>
 </file>
@@ -5356,7 +5369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699B1651-6DC7-1E43-A5B6-8EF15B32842F}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="231" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="231" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -5385,7 +5398,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="B3" s="24">
         <v>45676</v>
@@ -5412,7 +5425,7 @@
         <v>845</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
@@ -5468,7 +5481,7 @@
         <v>857</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -5530,34 +5543,34 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
     </row>
   </sheetData>
@@ -13976,14 +13989,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8EE66F-5BF1-6F47-9F88-8D8C53839AC6}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="173" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="3"/>
-    <col min="3" max="3" width="60.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="73.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="53.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="3"/>
     <col min="6" max="6" width="46.1640625" style="3" customWidth="1"/>
@@ -14002,7 +14015,7 @@
         <v>866</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>1397</v>
@@ -14011,7 +14024,7 @@
         <v>1398</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -14068,7 +14081,7 @@
         <v>870</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1461</v>
+        <v>1481</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1447</v>
@@ -14077,7 +14090,7 @@
         <v>1451</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1459</v>
+        <v>1477</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>1458</v>
@@ -14091,7 +14104,7 @@
         <v>871</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1460</v>
+        <v>1480</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>1448</v>
@@ -14100,13 +14113,13 @@
         <v>1452</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>1464</v>
+        <v>1478</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -14114,7 +14127,7 @@
         <v>872</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1462</v>
+        <v>1482</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>1449</v>
@@ -14123,10 +14136,10 @@
         <v>1453</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>1465</v>
+        <v>1479</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
     </row>
   </sheetData>
@@ -14174,7 +14187,7 @@
         <v>878</v>
       </c>
       <c r="D2" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -14196,7 +14209,7 @@
         <v>880</v>
       </c>
       <c r="D4" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -14207,7 +14220,7 @@
         <v>922</v>
       </c>
       <c r="D5" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -14218,7 +14231,7 @@
         <v>923</v>
       </c>
       <c r="D6" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -14229,7 +14242,7 @@
         <v>924</v>
       </c>
       <c r="D7" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
     </row>
   </sheetData>
